--- a/BackTest/2019-11-01 BackTest DVP.xlsx
+++ b/BackTest/2019-11-01 BackTest DVP.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.4000000000000039</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>49.99999999999978</v>
+      </c>
       <c r="L12" t="n">
         <v>15.76</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.4000000000000039</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>15.78</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.600000000000005</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-49.99999999999978</v>
+      </c>
       <c r="L14" t="n">
         <v>15.77</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.800000000000006</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>15.77</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.800000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>15.77</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.800000000000006</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>15.77</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.000000000000007</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-24.99999999999994</v>
+      </c>
       <c r="L18" t="n">
         <v>15.75</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.000000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-24.99999999999994</v>
+      </c>
       <c r="L19" t="n">
         <v>15.73</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.200000000000008</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>11.1111111111112</v>
+      </c>
       <c r="L20" t="n">
         <v>15.73</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.200000000000008</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>15.74</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.200000000000008</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>15.74</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.300000000000008</v>
       </c>
       <c r="K23" t="n">
-        <v>23.07692307692299</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L23" t="n">
         <v>15.75</v>
@@ -1466,7 +1488,7 @@
         <v>1.300000000000008</v>
       </c>
       <c r="K24" t="n">
-        <v>16.66666666666664</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L24" t="n">
         <v>15.78</v>
@@ -1515,7 +1537,7 @@
         <v>1.500000000000009</v>
       </c>
       <c r="K25" t="n">
-        <v>-7.692307692307756</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L25" t="n">
         <v>15.77</v>
@@ -1564,7 +1586,7 @@
         <v>1.500000000000009</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.692307692307756</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L26" t="n">
         <v>15.76</v>
@@ -1613,7 +1635,7 @@
         <v>1.70000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>6.666666666666604</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L27" t="n">
         <v>15.77</v>
@@ -1662,7 +1684,7 @@
         <v>1.900000000000011</v>
       </c>
       <c r="K28" t="n">
-        <v>-5.88235294117652</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L28" t="n">
         <v>15.78</v>
@@ -1711,7 +1733,7 @@
         <v>1.900000000000011</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.88235294117652</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L29" t="n">
         <v>15.79</v>
@@ -1760,7 +1782,7 @@
         <v>2.100000000000012</v>
       </c>
       <c r="K30" t="n">
-        <v>5.263157894736794</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L30" t="n">
         <v>15.79999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>2.300000000000013</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-9.090909090909179</v>
       </c>
       <c r="L31" t="n">
         <v>15.78999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>2.300000000000013</v>
       </c>
       <c r="K32" t="n">
-        <v>-5.263157894736891</v>
+        <v>-20</v>
       </c>
       <c r="L32" t="n">
         <v>15.77999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>2.300000000000013</v>
       </c>
       <c r="K33" t="n">
-        <v>-5.263157894736891</v>
+        <v>-20</v>
       </c>
       <c r="L33" t="n">
         <v>15.75999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>2.500000000000014</v>
       </c>
       <c r="K34" t="n">
-        <v>15.78947368421049</v>
+        <v>20</v>
       </c>
       <c r="L34" t="n">
         <v>15.75999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>2.500000000000014</v>
       </c>
       <c r="K35" t="n">
-        <v>5.882352941176421</v>
+        <v>20</v>
       </c>
       <c r="L35" t="n">
         <v>15.77999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>2.700000000000014</v>
       </c>
       <c r="K37" t="n">
-        <v>5.263157894736803</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L37" t="n">
         <v>15.80999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>2.700000000000014</v>
       </c>
       <c r="K38" t="n">
-        <v>17.64705882352939</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L38" t="n">
         <v>15.82999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>2.700000000000014</v>
       </c>
       <c r="K39" t="n">
-        <v>17.64705882352939</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>15.84999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>2.800000000000013</v>
       </c>
       <c r="K40" t="n">
-        <v>12.49999999999992</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L40" t="n">
         <v>15.85999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>2.800000000000013</v>
       </c>
       <c r="K41" t="n">
-        <v>12.49999999999992</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L41" t="n">
         <v>15.89</v>
@@ -2370,7 +2392,7 @@
         <v>2.800000000000013</v>
       </c>
       <c r="K42" t="n">
-        <v>12.49999999999992</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L42" t="n">
         <v>15.92</v>
@@ -2421,7 +2443,7 @@
         <v>2.800000000000013</v>
       </c>
       <c r="K43" t="n">
-        <v>6.666666666666619</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>15.95</v>
@@ -2472,7 +2494,7 @@
         <v>2.800000000000013</v>
       </c>
       <c r="K44" t="n">
-        <v>6.666666666666619</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>15.96</v>
@@ -2523,7 +2545,7 @@
         <v>2.800000000000013</v>
       </c>
       <c r="K45" t="n">
-        <v>23.07692307692306</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>15.97</v>
@@ -2574,7 +2596,7 @@
         <v>2.800000000000013</v>
       </c>
       <c r="K46" t="n">
-        <v>23.07692307692306</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>15.97</v>
@@ -2625,7 +2647,7 @@
         <v>2.800000000000013</v>
       </c>
       <c r="K47" t="n">
-        <v>9.090909090909033</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>15.98</v>
@@ -2676,7 +2698,7 @@
         <v>2.900000000000013</v>
       </c>
       <c r="K48" t="n">
-        <v>20.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>15.98</v>
@@ -2727,7 +2749,7 @@
         <v>3.000000000000012</v>
       </c>
       <c r="K49" t="n">
-        <v>27.27272727272731</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>15.98999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>3.100000000000012</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>15.98</v>
@@ -2829,7 +2851,7 @@
         <v>3.200000000000012</v>
       </c>
       <c r="K51" t="n">
-        <v>33.33333333333346</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>15.98</v>
@@ -2880,7 +2902,7 @@
         <v>3.400000000000011</v>
       </c>
       <c r="K52" t="n">
-        <v>9.090909090909239</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>15.96</v>
@@ -2931,7 +2953,7 @@
         <v>3.400000000000011</v>
       </c>
       <c r="K53" t="n">
-        <v>9.090909090909239</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>15.94</v>
@@ -2982,7 +3004,7 @@
         <v>3.500000000000011</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L54" t="n">
         <v>15.93</v>
@@ -3033,7 +3055,7 @@
         <v>3.60000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L55" t="n">
         <v>15.91</v>
@@ -3084,7 +3106,7 @@
         <v>3.60000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L56" t="n">
         <v>15.89</v>
@@ -3186,7 +3208,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>15.88</v>
@@ -3288,7 +3310,7 @@
         <v>3.80000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>15.86</v>
@@ -3339,7 +3361,7 @@
         <v>4.000000000000009</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>15.86</v>
@@ -3390,7 +3412,7 @@
         <v>4.000000000000009</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>15.88</v>
@@ -3441,7 +3463,7 @@
         <v>4.000000000000009</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L63" t="n">
         <v>15.9</v>
@@ -3492,7 +3514,7 @@
         <v>4.100000000000009</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L64" t="n">
         <v>15.9</v>
@@ -3543,7 +3565,7 @@
         <v>4.200000000000008</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L65" t="n">
         <v>15.92</v>
@@ -3594,7 +3616,7 @@
         <v>4.200000000000008</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L66" t="n">
         <v>15.94</v>
@@ -3645,7 +3667,7 @@
         <v>4.300000000000008</v>
       </c>
       <c r="K67" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>15.94</v>
@@ -3696,7 +3718,7 @@
         <v>4.500000000000009</v>
       </c>
       <c r="K68" t="n">
-        <v>12.5000000000001</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L68" t="n">
         <v>15.96</v>
@@ -3747,7 +3769,7 @@
         <v>4.500000000000009</v>
       </c>
       <c r="K69" t="n">
-        <v>6.666666666666778</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L69" t="n">
         <v>15.98</v>
@@ -3798,7 +3820,7 @@
         <v>4.60000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>6.666666666666651</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>15.99999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>4.70000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>-6.666666666666651</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L71" t="n">
         <v>15.98999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>4.80000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>15.98999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>4.900000000000011</v>
       </c>
       <c r="K73" t="n">
-        <v>20.00000000000005</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L73" t="n">
         <v>15.99999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>5.000000000000012</v>
       </c>
       <c r="K74" t="n">
-        <v>6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>16.00999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>5.100000000000012</v>
       </c>
       <c r="K75" t="n">
-        <v>6.666666666666635</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L75" t="n">
         <v>15.99999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>5.200000000000012</v>
       </c>
       <c r="K76" t="n">
-        <v>12.49999999999994</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L76" t="n">
         <v>15.99999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>5.400000000000011</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.882352941176446</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>15.98999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>5.400000000000011</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.882352941176446</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>15.96</v>
@@ -4257,7 +4279,7 @@
         <v>5.500000000000012</v>
       </c>
       <c r="K79" t="n">
-        <v>-11.11111111111116</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>15.92</v>
@@ -4308,7 +4330,7 @@
         <v>5.600000000000014</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L80" t="n">
         <v>15.9</v>
@@ -4359,7 +4381,7 @@
         <v>5.700000000000015</v>
       </c>
       <c r="K81" t="n">
-        <v>-17.64705882352939</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L81" t="n">
         <v>15.88</v>
@@ -4410,7 +4432,7 @@
         <v>5.700000000000015</v>
       </c>
       <c r="K82" t="n">
-        <v>-17.64705882352939</v>
+        <v>-50</v>
       </c>
       <c r="L82" t="n">
         <v>15.84999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>5.700000000000015</v>
       </c>
       <c r="K83" t="n">
-        <v>-17.64705882352939</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L83" t="n">
         <v>15.80999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>5.700000000000015</v>
       </c>
       <c r="K84" t="n">
-        <v>-12.50000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>15.77999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>5.700000000000015</v>
       </c>
       <c r="K85" t="n">
-        <v>-19.99999999999995</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L85" t="n">
         <v>15.75999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>5.700000000000015</v>
       </c>
       <c r="K86" t="n">
-        <v>-19.99999999999995</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>15.72999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>5.800000000000015</v>
       </c>
       <c r="K87" t="n">
-        <v>-19.99999999999995</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L87" t="n">
         <v>15.70999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>5.900000000000015</v>
       </c>
       <c r="K88" t="n">
-        <v>-28.57142857142861</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>15.69999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>6.000000000000014</v>
       </c>
       <c r="K89" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L89" t="n">
         <v>15.68999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>6.200000000000015</v>
       </c>
       <c r="K90" t="n">
-        <v>-12.49999999999992</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L90" t="n">
         <v>15.68999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>6.400000000000016</v>
       </c>
       <c r="K91" t="n">
-        <v>-17.64705882352939</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L91" t="n">
         <v>15.67999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>6.400000000000016</v>
       </c>
       <c r="K92" t="n">
-        <v>-24.99999999999992</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L92" t="n">
         <v>15.66999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>6.600000000000017</v>
       </c>
       <c r="K93" t="n">
-        <v>-17.64705882352939</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L93" t="n">
         <v>15.67999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>6.600000000000017</v>
       </c>
       <c r="K94" t="n">
-        <v>-12.49999999999992</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L94" t="n">
         <v>15.68999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>6.700000000000019</v>
       </c>
       <c r="K95" t="n">
-        <v>-12.50000000000001</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>15.68999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>6.800000000000018</v>
       </c>
       <c r="K96" t="n">
-        <v>-24.99999999999992</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>15.67999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>6.800000000000018</v>
       </c>
       <c r="K97" t="n">
-        <v>-14.28571428571428</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L97" t="n">
         <v>15.67999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>6.900000000000018</v>
       </c>
       <c r="K98" t="n">
-        <v>-19.99999999999995</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L98" t="n">
         <v>15.65999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>7.000000000000018</v>
       </c>
       <c r="K99" t="n">
-        <v>-6.666666666666619</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L99" t="n">
         <v>15.65999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>7.100000000000017</v>
       </c>
       <c r="K100" t="n">
-        <v>-6.666666666666746</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L100" t="n">
         <v>15.64999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>7.200000000000017</v>
       </c>
       <c r="K101" t="n">
-        <v>-6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>15.64999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>7.300000000000017</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L102" t="n">
         <v>15.65999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>7.300000000000017</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L103" t="n">
         <v>15.64999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>7.300000000000017</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L105" t="n">
         <v>15.63999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>7.400000000000018</v>
       </c>
       <c r="K106" t="n">
-        <v>5.882352941176544</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L106" t="n">
         <v>15.65999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>7.400000000000018</v>
       </c>
       <c r="K107" t="n">
-        <v>12.50000000000004</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L107" t="n">
         <v>15.67999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>7.50000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L108" t="n">
         <v>15.69999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>7.600000000000021</v>
       </c>
       <c r="K109" t="n">
-        <v>12.50000000000001</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L109" t="n">
         <v>15.71999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>7.700000000000021</v>
       </c>
       <c r="K110" t="n">
-        <v>6.666666666666619</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L110" t="n">
         <v>15.73999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>7.700000000000021</v>
       </c>
       <c r="K111" t="n">
-        <v>23.07692307692306</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L111" t="n">
         <v>15.76999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>7.700000000000021</v>
       </c>
       <c r="K112" t="n">
-        <v>23.07692307692306</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L112" t="n">
         <v>15.79</v>
@@ -5991,7 +6013,7 @@
         <v>7.700000000000021</v>
       </c>
       <c r="K113" t="n">
-        <v>9.090909090909033</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L113" t="n">
         <v>15.81</v>
@@ -6042,7 +6064,7 @@
         <v>7.700000000000021</v>
       </c>
       <c r="K114" t="n">
-        <v>9.090909090909033</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L114" t="n">
         <v>15.83</v>
@@ -6093,7 +6115,7 @@
         <v>7.700000000000021</v>
       </c>
       <c r="K115" t="n">
-        <v>20.00000000000007</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L115" t="n">
         <v>15.85</v>
@@ -6144,7 +6166,7 @@
         <v>7.700000000000021</v>
       </c>
       <c r="K116" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L116" t="n">
         <v>15.86</v>
@@ -6195,7 +6217,7 @@
         <v>7.80000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>20.00000000000007</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L117" t="n">
         <v>15.86</v>
@@ -6246,7 +6268,7 @@
         <v>7.80000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>15.87</v>
@@ -6297,7 +6319,7 @@
         <v>7.80000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>25.00000000000006</v>
+        <v>-100</v>
       </c>
       <c r="L119" t="n">
         <v>15.87</v>
@@ -6348,7 +6370,7 @@
         <v>7.80000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>14.28571428571443</v>
+        <v>-100</v>
       </c>
       <c r="L120" t="n">
         <v>15.86</v>
@@ -6399,7 +6421,7 @@
         <v>8.000000000000021</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L121" t="n">
         <v>15.83</v>
@@ -6450,7 +6472,7 @@
         <v>8.200000000000022</v>
       </c>
       <c r="K122" t="n">
-        <v>11.1111111111112</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L122" t="n">
         <v>15.82</v>
@@ -6501,7 +6523,7 @@
         <v>8.400000000000023</v>
       </c>
       <c r="K123" t="n">
-        <v>-9.090909090909003</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L123" t="n">
         <v>15.79</v>
@@ -6552,7 +6574,7 @@
         <v>8.500000000000023</v>
       </c>
       <c r="K124" t="n">
-        <v>-16.66666666666652</v>
+        <v>-49.99999999999989</v>
       </c>
       <c r="L124" t="n">
         <v>15.75</v>
@@ -6603,7 +6625,7 @@
         <v>8.500000000000023</v>
       </c>
       <c r="K125" t="n">
-        <v>-16.66666666666652</v>
+        <v>-49.99999999999989</v>
       </c>
       <c r="L125" t="n">
         <v>15.71</v>
@@ -6654,7 +6676,7 @@
         <v>8.600000000000023</v>
       </c>
       <c r="K126" t="n">
-        <v>-33.33333333333324</v>
+        <v>-49.99999999999989</v>
       </c>
       <c r="L126" t="n">
         <v>15.66</v>
@@ -6705,7 +6727,7 @@
         <v>8.700000000000022</v>
       </c>
       <c r="K127" t="n">
-        <v>-23.07692307692306</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>15.63</v>
@@ -6756,7 +6778,7 @@
         <v>8.800000000000022</v>
       </c>
       <c r="K128" t="n">
-        <v>-23.07692307692295</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L128" t="n">
         <v>15.59</v>
@@ -6807,7 +6829,7 @@
         <v>8.900000000000022</v>
       </c>
       <c r="K129" t="n">
-        <v>-23.07692307692312</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L129" t="n">
         <v>15.56</v>
@@ -6858,7 +6880,7 @@
         <v>8.900000000000022</v>
       </c>
       <c r="K130" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L130" t="n">
         <v>15.53</v>
@@ -6909,7 +6931,7 @@
         <v>9.000000000000021</v>
       </c>
       <c r="K131" t="n">
-        <v>-23.07692307692312</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L131" t="n">
         <v>15.53</v>
@@ -6960,7 +6982,7 @@
         <v>9.100000000000021</v>
       </c>
       <c r="K132" t="n">
-        <v>-28.57142857142859</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>15.49999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>9.100000000000021</v>
       </c>
       <c r="K133" t="n">
-        <v>-28.57142857142859</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>15.48999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>9.30000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>-37.49999999999999</v>
+        <v>-25</v>
       </c>
       <c r="L134" t="n">
         <v>15.47</v>
@@ -7113,7 +7135,7 @@
         <v>9.30000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>-37.49999999999999</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L135" t="n">
         <v>15.45</v>
@@ -7164,7 +7186,7 @@
         <v>9.50000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>-22.22222222222225</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>15.46</v>
@@ -7215,7 +7237,7 @@
         <v>9.50000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>-17.64705882352946</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L137" t="n">
         <v>15.46</v>
@@ -7266,7 +7288,7 @@
         <v>9.600000000000019</v>
       </c>
       <c r="K138" t="n">
-        <v>-22.22222222222225</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L138" t="n">
         <v>15.46</v>
@@ -7317,7 +7339,7 @@
         <v>9.700000000000019</v>
       </c>
       <c r="K139" t="n">
-        <v>-15.78947368421058</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>15.46</v>
@@ -7368,7 +7390,7 @@
         <v>9.700000000000019</v>
       </c>
       <c r="K140" t="n">
-        <v>-15.78947368421058</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L140" t="n">
         <v>15.46</v>
@@ -7419,7 +7441,7 @@
         <v>9.700000000000019</v>
       </c>
       <c r="K141" t="n">
-        <v>-5.882352941176458</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>15.45</v>
@@ -7470,7 +7492,7 @@
         <v>9.700000000000019</v>
       </c>
       <c r="K142" t="n">
-        <v>-20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>15.45</v>
@@ -7521,7 +7543,7 @@
         <v>9.700000000000019</v>
       </c>
       <c r="K143" t="n">
-        <v>-7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L143" t="n">
         <v>15.45</v>
@@ -7572,7 +7594,7 @@
         <v>9.800000000000018</v>
       </c>
       <c r="K144" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L144" t="n">
         <v>15.46</v>
@@ -7623,7 +7645,7 @@
         <v>9.800000000000018</v>
       </c>
       <c r="K145" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>15.47</v>
@@ -7674,7 +7696,7 @@
         <v>9.800000000000018</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>15.46</v>
@@ -7725,7 +7747,7 @@
         <v>9.800000000000018</v>
       </c>
       <c r="K147" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>15.45</v>
@@ -7776,7 +7798,7 @@
         <v>9.900000000000018</v>
       </c>
       <c r="K148" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L148" t="n">
         <v>15.44</v>
@@ -7827,7 +7849,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K149" t="n">
-        <v>-27.27272727272739</v>
+        <v>-100</v>
       </c>
       <c r="L149" t="n">
         <v>15.41</v>
@@ -7878,7 +7900,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K150" t="n">
-        <v>-27.27272727272739</v>
+        <v>-100</v>
       </c>
       <c r="L150" t="n">
         <v>15.38</v>
@@ -7929,7 +7951,7 @@
         <v>10.20000000000002</v>
       </c>
       <c r="K151" t="n">
-        <v>-16.66666666666662</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L151" t="n">
         <v>15.37</v>
@@ -7980,7 +8002,7 @@
         <v>10.30000000000002</v>
       </c>
       <c r="K152" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L152" t="n">
         <v>15.35</v>
@@ -8031,7 +8053,7 @@
         <v>10.40000000000002</v>
       </c>
       <c r="K153" t="n">
-        <v>-7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>15.34</v>
@@ -8082,7 +8104,7 @@
         <v>10.40000000000002</v>
       </c>
       <c r="K154" t="n">
-        <v>9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>15.34</v>
@@ -8133,7 +8155,7 @@
         <v>10.50000000000002</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L155" t="n">
         <v>15.33</v>
@@ -8184,7 +8206,7 @@
         <v>10.50000000000002</v>
       </c>
       <c r="K156" t="n">
-        <v>-19.99999999999993</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L156" t="n">
         <v>15.32</v>
@@ -8235,7 +8257,7 @@
         <v>10.70000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L157" t="n">
         <v>15.29</v>
@@ -8286,7 +8308,7 @@
         <v>10.80000000000002</v>
       </c>
       <c r="K158" t="n">
-        <v>-16.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>15.28</v>
@@ -8337,7 +8359,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K159" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L159" t="n">
         <v>15.27</v>
@@ -8388,7 +8410,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K160" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L160" t="n">
         <v>15.26</v>
@@ -8439,7 +8461,7 @@
         <v>11.00000000000002</v>
       </c>
       <c r="K161" t="n">
-        <v>-23.07692307692312</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L161" t="n">
         <v>15.23999999999999</v>
@@ -8490,7 +8512,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K162" t="n">
-        <v>-28.57142857142859</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L162" t="n">
         <v>15.21999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K163" t="n">
-        <v>-28.57142857142859</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L163" t="n">
         <v>15.18999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>11.20000000000002</v>
       </c>
       <c r="K164" t="n">
-        <v>-14.28571428571436</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L164" t="n">
         <v>15.16999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>11.30000000000002</v>
       </c>
       <c r="K165" t="n">
-        <v>-6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>15.16999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K166" t="n">
-        <v>-12.50000000000004</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L166" t="n">
         <v>15.15999999999999</v>
@@ -8745,7 +8767,7 @@
         <v>11.50000000000002</v>
       </c>
       <c r="K167" t="n">
-        <v>-5.882352941176434</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L167" t="n">
         <v>15.17999999999999</v>
@@ -8796,7 +8818,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>5.882352941176434</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L168" t="n">
         <v>15.19999999999999</v>
@@ -8847,7 +8869,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>12.50000000000004</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L169" t="n">
         <v>15.22999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>11.90000000000003</v>
       </c>
       <c r="K171" t="n">
-        <v>-5.882352941176434</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="L171" t="n">
         <v>15.24999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>11.90000000000003</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="L172" t="n">
         <v>15.27</v>
@@ -9051,7 +9073,7 @@
         <v>12.00000000000003</v>
       </c>
       <c r="K173" t="n">
-        <v>-12.50000000000001</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>15.28</v>
@@ -9102,7 +9124,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K174" t="n">
-        <v>-5.882352941176421</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>15.29</v>
@@ -9153,7 +9175,7 @@
         <v>12.20000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>-5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>15.28</v>
@@ -9255,7 +9277,7 @@
         <v>12.40000000000003</v>
       </c>
       <c r="K177" t="n">
-        <v>17.64705882352935</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>15.3</v>
@@ -9306,7 +9328,7 @@
         <v>12.50000000000003</v>
       </c>
       <c r="K178" t="n">
-        <v>5.88235294117652</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L178" t="n">
         <v>15.29</v>
@@ -9357,7 +9379,7 @@
         <v>12.60000000000003</v>
       </c>
       <c r="K179" t="n">
-        <v>5.88235294117641</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>15.27</v>
@@ -9408,7 +9430,7 @@
         <v>12.60000000000003</v>
       </c>
       <c r="K180" t="n">
-        <v>5.88235294117641</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L180" t="n">
         <v>15.27</v>
@@ -9459,7 +9481,7 @@
         <v>12.70000000000003</v>
       </c>
       <c r="K181" t="n">
-        <v>5.882352941176507</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>15.27</v>
@@ -9510,7 +9532,7 @@
         <v>12.80000000000003</v>
       </c>
       <c r="K182" t="n">
-        <v>5.882352941176397</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>15.25999999999999</v>
@@ -9561,7 +9583,7 @@
         <v>12.90000000000003</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>-24.99999999999994</v>
       </c>
       <c r="L183" t="n">
         <v>15.24999999999999</v>
@@ -9612,7 +9634,7 @@
         <v>12.90000000000003</v>
       </c>
       <c r="K184" t="n">
-        <v>-5.882352941176397</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L184" t="n">
         <v>15.22999999999999</v>
@@ -9663,7 +9685,7 @@
         <v>13.00000000000003</v>
       </c>
       <c r="K185" t="n">
-        <v>-5.882352941176507</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L185" t="n">
         <v>15.22999999999999</v>
@@ -9714,7 +9736,7 @@
         <v>13.20000000000003</v>
       </c>
       <c r="K186" t="n">
-        <v>11.11111111111109</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>15.23999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>13.40000000000004</v>
       </c>
       <c r="K187" t="n">
-        <v>-5.263157894736882</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L187" t="n">
         <v>15.21999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>13.60000000000004</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L188" t="n">
         <v>15.22999999999999</v>
@@ -9867,7 +9889,7 @@
         <v>13.70000000000004</v>
       </c>
       <c r="K189" t="n">
-        <v>-4.761904761904714</v>
+        <v>9.090909090909179</v>
       </c>
       <c r="L189" t="n">
         <v>15.23999999999999</v>
@@ -9918,7 +9940,7 @@
         <v>13.70000000000004</v>
       </c>
       <c r="K190" t="n">
-        <v>5.263157894736882</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>15.24999999999999</v>
@@ -9969,7 +9991,7 @@
         <v>13.80000000000004</v>
       </c>
       <c r="K191" t="n">
-        <v>-5.263157894736882</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>15.23999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>13.90000000000004</v>
       </c>
       <c r="K192" t="n">
-        <v>-9.999999999999991</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>15.22999999999999</v>
@@ -10071,7 +10093,7 @@
         <v>13.90000000000004</v>
       </c>
       <c r="K193" t="n">
-        <v>-5.263157894736794</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>15.22999999999999</v>
@@ -10122,7 +10144,7 @@
         <v>13.90000000000004</v>
       </c>
       <c r="K194" t="n">
-        <v>-11.11111111111111</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L194" t="n">
         <v>15.22999999999999</v>
@@ -10173,7 +10195,7 @@
         <v>14.00000000000004</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L195" t="n">
         <v>15.22999999999999</v>
@@ -10224,7 +10246,7 @@
         <v>14.00000000000004</v>
       </c>
       <c r="K196" t="n">
-        <v>-5.882352941176532</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>15.20999999999999</v>
@@ -10275,7 +10297,7 @@
         <v>14.10000000000004</v>
       </c>
       <c r="K197" t="n">
-        <v>-5.882352941176421</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L197" t="n">
         <v>15.21999999999999</v>
@@ -10326,7 +10348,7 @@
         <v>14.20000000000004</v>
       </c>
       <c r="K198" t="n">
-        <v>-5.88235294117652</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L198" t="n">
         <v>15.19999999999999</v>
@@ -10377,7 +10399,7 @@
         <v>14.20000000000004</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L199" t="n">
         <v>15.18999999999999</v>
@@ -10428,7 +10450,7 @@
         <v>14.30000000000004</v>
       </c>
       <c r="K200" t="n">
-        <v>5.88235294117652</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L200" t="n">
         <v>15.18999999999999</v>
@@ -10479,7 +10501,7 @@
         <v>14.40000000000004</v>
       </c>
       <c r="K201" t="n">
-        <v>-5.88235294117652</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L201" t="n">
         <v>15.18999999999999</v>
@@ -10530,7 +10552,7 @@
         <v>14.50000000000004</v>
       </c>
       <c r="K202" t="n">
-        <v>5.88235294117652</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L202" t="n">
         <v>15.20999999999999</v>
@@ -10581,7 +10603,7 @@
         <v>14.60000000000005</v>
       </c>
       <c r="K203" t="n">
-        <v>5.88235294117641</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L203" t="n">
         <v>15.21999999999999</v>
@@ -10632,7 +10654,7 @@
         <v>14.70000000000005</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>-14.28571428571407</v>
       </c>
       <c r="L204" t="n">
         <v>15.21999999999999</v>
@@ -10683,7 +10705,7 @@
         <v>14.90000000000005</v>
       </c>
       <c r="K205" t="n">
-        <v>5.263157894736882</v>
+        <v>11.11111111111116</v>
       </c>
       <c r="L205" t="n">
         <v>15.22999999999999</v>
@@ -10734,7 +10756,7 @@
         <v>15.00000000000005</v>
       </c>
       <c r="K206" t="n">
-        <v>-11.11111111111109</v>
+        <v>-11.11111111111116</v>
       </c>
       <c r="L206" t="n">
         <v>15.22999999999999</v>
@@ -10836,7 +10858,7 @@
         <v>15.10000000000005</v>
       </c>
       <c r="K208" t="n">
-        <v>-19.9999999999999</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L208" t="n">
         <v>15.20999999999999</v>
@@ -10887,7 +10909,7 @@
         <v>15.20000000000005</v>
       </c>
       <c r="K209" t="n">
-        <v>-6.666666666666714</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L209" t="n">
         <v>15.20999999999999</v>
@@ -10938,7 +10960,7 @@
         <v>15.30000000000005</v>
       </c>
       <c r="K210" t="n">
-        <v>-12.49999999999999</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L210" t="n">
         <v>15.18999999999999</v>
@@ -10989,7 +11011,7 @@
         <v>15.40000000000005</v>
       </c>
       <c r="K211" t="n">
-        <v>-12.49999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>15.16999999999999</v>
@@ -11040,7 +11062,7 @@
         <v>15.40000000000005</v>
       </c>
       <c r="K212" t="n">
-        <v>-6.666666666666604</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L212" t="n">
         <v>15.13999999999999</v>
@@ -11091,7 +11113,7 @@
         <v>15.40000000000005</v>
       </c>
       <c r="K213" t="n">
-        <v>-6.666666666666604</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L213" t="n">
         <v>15.11999999999999</v>
@@ -11142,7 +11164,7 @@
         <v>15.40000000000005</v>
       </c>
       <c r="K214" t="n">
-        <v>-6.666666666666604</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L214" t="n">
         <v>15.10999999999999</v>
@@ -11193,7 +11215,7 @@
         <v>15.50000000000005</v>
       </c>
       <c r="K215" t="n">
-        <v>-19.99999999999981</v>
+        <v>-60</v>
       </c>
       <c r="L215" t="n">
         <v>15.06999999999999</v>
@@ -11244,7 +11266,7 @@
         <v>15.70000000000005</v>
       </c>
       <c r="K216" t="n">
-        <v>-29.41176470588218</v>
+        <v>-71.4285714285715</v>
       </c>
       <c r="L216" t="n">
         <v>15.01999999999999</v>
@@ -11295,7 +11317,7 @@
         <v>15.70000000000005</v>
       </c>
       <c r="K217" t="n">
-        <v>-37.49999999999989</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="L217" t="n">
         <v>14.96999999999999</v>
@@ -11346,7 +11368,7 @@
         <v>15.70000000000005</v>
       </c>
       <c r="K218" t="n">
-        <v>-33.33333333333318</v>
+        <v>-100</v>
       </c>
       <c r="L218" t="n">
         <v>14.92999999999999</v>
@@ -11397,7 +11419,7 @@
         <v>15.70000000000005</v>
       </c>
       <c r="K219" t="n">
-        <v>-33.33333333333318</v>
+        <v>-100</v>
       </c>
       <c r="L219" t="n">
         <v>14.87999999999999</v>
@@ -11448,7 +11470,7 @@
         <v>15.90000000000005</v>
       </c>
       <c r="K220" t="n">
-        <v>-24.99999999999992</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L220" t="n">
         <v>14.85999999999999</v>
@@ -11499,7 +11521,7 @@
         <v>16.00000000000005</v>
       </c>
       <c r="K221" t="n">
-        <v>-24.9999999999998</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L221" t="n">
         <v>14.83999999999999</v>
@@ -11550,7 +11572,7 @@
         <v>16.20000000000005</v>
       </c>
       <c r="K222" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>14.83999999999999</v>
@@ -11601,7 +11623,7 @@
         <v>16.40000000000005</v>
       </c>
       <c r="K223" t="n">
-        <v>-22.22222222222211</v>
+        <v>-19.99999999999989</v>
       </c>
       <c r="L223" t="n">
         <v>14.81999999999999</v>
@@ -11652,7 +11674,7 @@
         <v>16.50000000000005</v>
       </c>
       <c r="K224" t="n">
-        <v>-11.11111111111104</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>14.80999999999999</v>
@@ -11703,7 +11725,7 @@
         <v>16.50000000000005</v>
       </c>
       <c r="K225" t="n">
-        <v>-24.99999999999997</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L225" t="n">
         <v>14.80999999999999</v>
@@ -11754,7 +11776,7 @@
         <v>16.60000000000005</v>
       </c>
       <c r="K226" t="n">
-        <v>-12.49999999999993</v>
+        <v>33.33333333333326</v>
       </c>
       <c r="L226" t="n">
         <v>14.83999999999999</v>
@@ -11805,7 +11827,7 @@
         <v>16.90000000000005</v>
       </c>
       <c r="K227" t="n">
-        <v>-26.31578947368416</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>14.83999999999999</v>
@@ -11856,7 +11878,7 @@
         <v>17.10000000000005</v>
       </c>
       <c r="K228" t="n">
-        <v>-9.999999999999947</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L228" t="n">
         <v>14.86</v>
@@ -11907,7 +11929,7 @@
         <v>17.10000000000005</v>
       </c>
       <c r="K229" t="n">
-        <v>-15.78947368421044</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>14.88</v>
@@ -11958,7 +11980,7 @@
         <v>17.20000000000005</v>
       </c>
       <c r="K230" t="n">
-        <v>-15.78947368421042</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>14.87</v>
@@ -12009,7 +12031,7 @@
         <v>17.20000000000005</v>
       </c>
       <c r="K231" t="n">
-        <v>-11.11111111111103</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L231" t="n">
         <v>14.87</v>
@@ -12060,7 +12082,7 @@
         <v>17.30000000000005</v>
       </c>
       <c r="K232" t="n">
-        <v>-15.7894736842105</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L232" t="n">
         <v>14.84</v>
@@ -12111,7 +12133,7 @@
         <v>17.40000000000006</v>
       </c>
       <c r="K233" t="n">
-        <v>-19.99999999999993</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L233" t="n">
         <v>14.82</v>
@@ -12162,7 +12184,7 @@
         <v>17.50000000000006</v>
       </c>
       <c r="K234" t="n">
-        <v>-14.28571428571425</v>
+        <v>-19.99999999999996</v>
       </c>
       <c r="L234" t="n">
         <v>14.79999999999999</v>
@@ -12213,7 +12235,7 @@
         <v>17.60000000000006</v>
       </c>
       <c r="K235" t="n">
-        <v>-4.761904761904718</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L235" t="n">
         <v>14.79</v>
@@ -12264,7 +12286,7 @@
         <v>17.60000000000006</v>
       </c>
       <c r="K236" t="n">
-        <v>5.263157894736886</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L236" t="n">
         <v>14.77</v>
@@ -12315,7 +12337,7 @@
         <v>17.80000000000006</v>
       </c>
       <c r="K237" t="n">
-        <v>-4.761904761904714</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L237" t="n">
         <v>14.76</v>
@@ -12366,7 +12388,7 @@
         <v>17.80000000000006</v>
       </c>
       <c r="K238" t="n">
-        <v>-4.761904761904714</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L238" t="n">
         <v>14.73</v>
@@ -12417,7 +12439,7 @@
         <v>17.80000000000006</v>
       </c>
       <c r="K239" t="n">
-        <v>-4.761904761904714</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L239" t="n">
         <v>14.69999999999999</v>
@@ -12468,7 +12490,7 @@
         <v>17.80000000000006</v>
       </c>
       <c r="K240" t="n">
-        <v>-15.78947368421046</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L240" t="n">
         <v>14.67999999999999</v>
@@ -12519,7 +12541,7 @@
         <v>17.90000000000006</v>
       </c>
       <c r="K241" t="n">
-        <v>-5.263157894736882</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>14.66999999999999</v>
@@ -12570,7 +12592,7 @@
         <v>18.00000000000006</v>
       </c>
       <c r="K242" t="n">
-        <v>-22.22222222222206</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>14.65999999999999</v>
@@ -12621,7 +12643,7 @@
         <v>18.20000000000007</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L243" t="n">
         <v>14.67999999999999</v>
@@ -12672,7 +12694,7 @@
         <v>18.30000000000007</v>
       </c>
       <c r="K244" t="n">
-        <v>-11.11111111111106</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L244" t="n">
         <v>14.67999999999999</v>
@@ -12723,7 +12745,7 @@
         <v>18.30000000000007</v>
       </c>
       <c r="K245" t="n">
-        <v>-11.11111111111106</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L245" t="n">
         <v>14.66999999999999</v>
@@ -12774,7 +12796,7 @@
         <v>18.30000000000007</v>
       </c>
       <c r="K246" t="n">
-        <v>-17.64705882352928</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L246" t="n">
         <v>14.65999999999999</v>
@@ -12825,7 +12847,7 @@
         <v>18.40000000000007</v>
       </c>
       <c r="K247" t="n">
-        <v>-6.666666666666564</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>14.65999999999999</v>
@@ -12876,7 +12898,7 @@
         <v>18.60000000000007</v>
       </c>
       <c r="K248" t="n">
-        <v>-6.666666666666549</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L248" t="n">
         <v>14.67999999999999</v>
@@ -12927,7 +12949,7 @@
         <v>18.60000000000007</v>
       </c>
       <c r="K249" t="n">
-        <v>-6.666666666666549</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L249" t="n">
         <v>14.69999999999999</v>
@@ -12978,7 +13000,7 @@
         <v>18.70000000000007</v>
       </c>
       <c r="K250" t="n">
-        <v>6.666666666666549</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L250" t="n">
         <v>14.72999999999999</v>
@@ -13029,7 +13051,7 @@
         <v>18.80000000000008</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L251" t="n">
         <v>14.73999999999999</v>
@@ -13080,7 +13102,7 @@
         <v>18.90000000000008</v>
       </c>
       <c r="K252" t="n">
-        <v>12.49999999999989</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L252" t="n">
         <v>14.77</v>
@@ -13131,7 +13153,7 @@
         <v>18.90000000000008</v>
       </c>
       <c r="K253" t="n">
-        <v>19.99999999999976</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L253" t="n">
         <v>14.78</v>
@@ -13182,7 +13204,7 @@
         <v>18.90000000000008</v>
       </c>
       <c r="K254" t="n">
-        <v>14.28571428571416</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L254" t="n">
         <v>14.8</v>
@@ -13233,7 +13255,7 @@
         <v>19.10000000000008</v>
       </c>
       <c r="K255" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>14.8</v>
@@ -13284,7 +13306,7 @@
         <v>19.20000000000008</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L256" t="n">
         <v>14.81</v>
@@ -13335,7 +13357,7 @@
         <v>19.20000000000008</v>
       </c>
       <c r="K257" t="n">
-        <v>14.28571428571416</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>14.83</v>
@@ -13386,7 +13408,7 @@
         <v>19.20000000000008</v>
       </c>
       <c r="K258" t="n">
-        <v>14.28571428571416</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>14.83</v>
@@ -13437,7 +13459,7 @@
         <v>19.20000000000008</v>
       </c>
       <c r="K259" t="n">
-        <v>14.28571428571416</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L259" t="n">
         <v>14.83</v>
@@ -13488,7 +13510,7 @@
         <v>19.20000000000008</v>
       </c>
       <c r="K260" t="n">
-        <v>14.28571428571416</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>14.82</v>
@@ -13539,7 +13561,7 @@
         <v>19.30000000000008</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L261" t="n">
         <v>14.81</v>
@@ -13590,7 +13612,7 @@
         <v>19.40000000000008</v>
       </c>
       <c r="K262" t="n">
-        <v>14.28571428571416</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L262" t="n">
         <v>14.8</v>
@@ -13641,7 +13663,7 @@
         <v>19.40000000000008</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L263" t="n">
         <v>14.79</v>
@@ -13692,7 +13714,7 @@
         <v>19.60000000000008</v>
       </c>
       <c r="K264" t="n">
-        <v>23.07692307692287</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L264" t="n">
         <v>14.8</v>
@@ -13743,7 +13765,7 @@
         <v>19.60000000000008</v>
       </c>
       <c r="K265" t="n">
-        <v>23.07692307692287</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L265" t="n">
         <v>14.83</v>
@@ -13794,7 +13816,7 @@
         <v>19.60000000000008</v>
       </c>
       <c r="K266" t="n">
-        <v>23.07692307692287</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L266" t="n">
         <v>14.85</v>
@@ -13845,7 +13867,7 @@
         <v>19.60000000000008</v>
       </c>
       <c r="K267" t="n">
-        <v>33.33333333333299</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L267" t="n">
         <v>14.87</v>
@@ -13896,7 +13918,7 @@
         <v>19.60000000000008</v>
       </c>
       <c r="K268" t="n">
-        <v>19.99999999999972</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L268" t="n">
         <v>14.89</v>
@@ -13947,7 +13969,7 @@
         <v>19.70000000000008</v>
       </c>
       <c r="K269" t="n">
-        <v>27.27272727272696</v>
+        <v>59.99999999999979</v>
       </c>
       <c r="L269" t="n">
         <v>14.92</v>
@@ -13998,7 +14020,7 @@
         <v>19.80000000000008</v>
       </c>
       <c r="K270" t="n">
-        <v>27.27272727272696</v>
+        <v>100</v>
       </c>
       <c r="L270" t="n">
         <v>14.95999999999999</v>
@@ -14049,7 +14071,7 @@
         <v>19.90000000000008</v>
       </c>
       <c r="K271" t="n">
-        <v>27.27272727272696</v>
+        <v>59.99999999999979</v>
       </c>
       <c r="L271" t="n">
         <v>14.99999999999999</v>
@@ -14100,7 +14122,7 @@
         <v>20.00000000000009</v>
       </c>
       <c r="K272" t="n">
-        <v>27.27272727272696</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L272" t="n">
         <v>15.03999999999999</v>
@@ -14151,7 +14173,7 @@
         <v>20.10000000000009</v>
       </c>
       <c r="K273" t="n">
-        <v>16.66666666666647</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L273" t="n">
         <v>15.06999999999999</v>
@@ -14202,7 +14224,7 @@
         <v>20.30000000000009</v>
       </c>
       <c r="K274" t="n">
-        <v>0</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L274" t="n">
         <v>15.05999999999999</v>
@@ -14253,7 +14275,7 @@
         <v>20.40000000000008</v>
       </c>
       <c r="K275" t="n">
-        <v>23.07692307692306</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>15.05999999999999</v>
@@ -14304,7 +14326,7 @@
         <v>20.40000000000008</v>
       </c>
       <c r="K276" t="n">
-        <v>16.66666666666657</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>15.05999999999999</v>
@@ -14355,7 +14377,7 @@
         <v>20.50000000000009</v>
       </c>
       <c r="K277" t="n">
-        <v>23.07692307692292</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L277" t="n">
         <v>15.06999999999999</v>
@@ -14406,7 +14428,7 @@
         <v>20.60000000000009</v>
       </c>
       <c r="K278" t="n">
-        <v>28.57142857142835</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L278" t="n">
         <v>15.08999999999999</v>
@@ -14457,7 +14479,7 @@
         <v>20.60000000000009</v>
       </c>
       <c r="K279" t="n">
-        <v>28.57142857142835</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>15.09999999999999</v>
@@ -14508,7 +14530,7 @@
         <v>20.60000000000009</v>
       </c>
       <c r="K280" t="n">
-        <v>28.57142857142835</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L280" t="n">
         <v>15.09999999999999</v>
@@ -14559,7 +14581,7 @@
         <v>20.80000000000009</v>
       </c>
       <c r="K281" t="n">
-        <v>20</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L281" t="n">
         <v>15.08999999999999</v>
@@ -14610,7 +14632,7 @@
         <v>21.10000000000009</v>
       </c>
       <c r="K282" t="n">
-        <v>29.41176470588231</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L282" t="n">
         <v>15.09999999999999</v>
@@ -14661,7 +14683,7 @@
         <v>21.20000000000009</v>
       </c>
       <c r="K283" t="n">
-        <v>33.33333333333324</v>
+        <v>55.55555555555542</v>
       </c>
       <c r="L283" t="n">
         <v>15.12999999999999</v>
@@ -14712,7 +14734,7 @@
         <v>21.20000000000009</v>
       </c>
       <c r="K284" t="n">
-        <v>24.99999999999994</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L284" t="n">
         <v>15.17999999999999</v>
@@ -14763,7 +14785,7 @@
         <v>21.20000000000009</v>
       </c>
       <c r="K285" t="n">
-        <v>24.99999999999994</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L285" t="n">
         <v>15.21999999999999</v>
@@ -14814,7 +14836,7 @@
         <v>21.30000000000009</v>
       </c>
       <c r="K286" t="n">
-        <v>17.64705882352939</v>
+        <v>25</v>
       </c>
       <c r="L286" t="n">
         <v>15.24999999999999</v>
@@ -14865,7 +14887,7 @@
         <v>21.30000000000009</v>
       </c>
       <c r="K287" t="n">
-        <v>17.64705882352939</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L287" t="n">
         <v>15.27</v>
@@ -14916,7 +14938,7 @@
         <v>21.30000000000009</v>
       </c>
       <c r="K288" t="n">
-        <v>17.64705882352939</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L288" t="n">
         <v>15.28</v>
@@ -14967,7 +14989,7 @@
         <v>21.40000000000009</v>
       </c>
       <c r="K289" t="n">
-        <v>5.882352941176415</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
         <v>15.28</v>
@@ -15018,7 +15040,7 @@
         <v>21.40000000000009</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L290" t="n">
         <v>15.28</v>
@@ -15069,7 +15091,7 @@
         <v>21.40000000000009</v>
       </c>
       <c r="K291" t="n">
-        <v>6.666666666666611</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>15.3</v>
@@ -15120,7 +15142,7 @@
         <v>21.40000000000009</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L292" t="n">
         <v>15.29</v>
@@ -15171,7 +15193,7 @@
         <v>21.50000000000009</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L293" t="n">
         <v>15.25999999999999</v>
@@ -15222,7 +15244,7 @@
         <v>21.60000000000009</v>
       </c>
       <c r="K294" t="n">
-        <v>23.07692307692286</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L294" t="n">
         <v>15.23999999999999</v>
@@ -15273,7 +15295,7 @@
         <v>21.60000000000009</v>
       </c>
       <c r="K295" t="n">
-        <v>16.66666666666647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L295" t="n">
         <v>15.21999999999999</v>
@@ -15324,7 +15346,7 @@
         <v>21.60000000000009</v>
       </c>
       <c r="K296" t="n">
-        <v>16.66666666666647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>15.20999999999999</v>
@@ -15375,7 +15397,7 @@
         <v>21.60000000000009</v>
       </c>
       <c r="K297" t="n">
-        <v>9.090909090908989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L297" t="n">
         <v>15.19999999999999</v>
@@ -15426,7 +15448,7 @@
         <v>21.7000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>-9.090909090908989</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L298" t="n">
         <v>15.17999999999998</v>
@@ -15477,7 +15499,7 @@
         <v>21.9000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>7.692307692307734</v>
+        <v>20</v>
       </c>
       <c r="L299" t="n">
         <v>15.18999999999999</v>
@@ -15528,7 +15550,7 @@
         <v>21.9000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>7.692307692307734</v>
+        <v>20</v>
       </c>
       <c r="L300" t="n">
         <v>15.19999999999999</v>
@@ -15579,7 +15601,7 @@
         <v>21.9000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>27.27272727272704</v>
+        <v>20</v>
       </c>
       <c r="L301" t="n">
         <v>15.20999999999999</v>
@@ -15630,7 +15652,7 @@
         <v>22.0000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>11.11111111111091</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L302" t="n">
         <v>15.22999999999999</v>
@@ -15681,7 +15703,7 @@
         <v>22.0000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L303" t="n">
         <v>15.25999999999999</v>
@@ -15732,7 +15754,7 @@
         <v>22.0000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L304" t="n">
         <v>15.28</v>
@@ -15783,7 +15805,7 @@
         <v>22.0000000000001</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L305" t="n">
         <v>15.3</v>
@@ -15834,7 +15856,7 @@
         <v>22.0000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>14.28571428571403</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L306" t="n">
         <v>15.32</v>
@@ -15885,7 +15907,7 @@
         <v>22.0000000000001</v>
       </c>
       <c r="K307" t="n">
-        <v>14.28571428571403</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L307" t="n">
         <v>15.34</v>
@@ -15936,7 +15958,7 @@
         <v>22.0000000000001</v>
       </c>
       <c r="K308" t="n">
-        <v>14.28571428571403</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L308" t="n">
         <v>15.37</v>
@@ -15987,7 +16009,7 @@
         <v>22.0000000000001</v>
       </c>
       <c r="K309" t="n">
-        <v>33.33333333333304</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L309" t="n">
         <v>15.38</v>
@@ -16038,7 +16060,7 @@
         <v>22.0000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>33.33333333333304</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L310" t="n">
         <v>15.39</v>
@@ -16088,9 +16110,7 @@
       <c r="J311" t="n">
         <v>22.0000000000001</v>
       </c>
-      <c r="K311" t="n">
-        <v>33.33333333333304</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>15.4</v>
       </c>
@@ -16139,9 +16159,7 @@
       <c r="J312" t="n">
         <v>22.0000000000001</v>
       </c>
-      <c r="K312" t="n">
-        <v>33.33333333333304</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>15.4</v>
       </c>
@@ -16190,9 +16208,7 @@
       <c r="J313" t="n">
         <v>22.0000000000001</v>
       </c>
-      <c r="K313" t="n">
-        <v>59.99999999999929</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>15.4</v>
       </c>
@@ -16242,7 +16258,7 @@
         <v>22.1000000000001</v>
       </c>
       <c r="K314" t="n">
-        <v>20</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L314" t="n">
         <v>15.39</v>
@@ -16293,7 +16309,7 @@
         <v>22.1000000000001</v>
       </c>
       <c r="K315" t="n">
-        <v>20</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L315" t="n">
         <v>15.38</v>
@@ -16344,7 +16360,7 @@
         <v>22.2000000000001</v>
       </c>
       <c r="K316" t="n">
-        <v>0</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L316" t="n">
         <v>15.36</v>
@@ -16395,7 +16411,7 @@
         <v>22.2000000000001</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L317" t="n">
         <v>15.34</v>
@@ -16446,7 +16462,7 @@
         <v>22.2000000000001</v>
       </c>
       <c r="K318" t="n">
-        <v>19.99999999999964</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L318" t="n">
         <v>15.32</v>
@@ -16497,7 +16513,7 @@
         <v>22.2000000000001</v>
       </c>
       <c r="K319" t="n">
-        <v>-33.33333333333333</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L319" t="n">
         <v>15.29999999999999</v>
@@ -16548,7 +16564,7 @@
         <v>22.2000000000001</v>
       </c>
       <c r="K320" t="n">
-        <v>-33.33333333333333</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L320" t="n">
         <v>15.27999999999999</v>
@@ -16599,7 +16615,7 @@
         <v>22.3000000000001</v>
       </c>
       <c r="K321" t="n">
-        <v>-49.99999999999956</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L321" t="n">
         <v>15.24999999999999</v>
@@ -16701,7 +16717,7 @@
         <v>22.40000000000011</v>
       </c>
       <c r="K323" t="n">
-        <v>-49.99999999999956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L323" t="n">
         <v>15.19999999999999</v>
@@ -16752,7 +16768,7 @@
         <v>22.40000000000011</v>
       </c>
       <c r="K324" t="n">
-        <v>-49.99999999999956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L324" t="n">
         <v>15.18999999999999</v>
@@ -16803,7 +16819,7 @@
         <v>22.50000000000011</v>
       </c>
       <c r="K325" t="n">
-        <v>-59.99999999999929</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L325" t="n">
         <v>15.16999999999998</v>
@@ -16854,7 +16870,7 @@
         <v>22.50000000000011</v>
       </c>
       <c r="K326" t="n">
-        <v>-59.99999999999929</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L326" t="n">
         <v>15.15999999999999</v>
@@ -16905,7 +16921,7 @@
         <v>22.60000000000011</v>
       </c>
       <c r="K327" t="n">
-        <v>-33.33333333333304</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>15.15999999999999</v>
@@ -16956,7 +16972,7 @@
         <v>22.70000000000011</v>
       </c>
       <c r="K328" t="n">
-        <v>-42.85714285714235</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L328" t="n">
         <v>15.14999999999999</v>
@@ -17007,7 +17023,7 @@
         <v>22.80000000000011</v>
       </c>
       <c r="K329" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>15.14999999999999</v>
@@ -17058,7 +17074,7 @@
         <v>22.80000000000011</v>
       </c>
       <c r="K330" t="n">
-        <v>-24.99999999999978</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L330" t="n">
         <v>15.14999999999999</v>
@@ -17109,7 +17125,7 @@
         <v>22.90000000000011</v>
       </c>
       <c r="K331" t="n">
-        <v>-11.11111111111091</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L331" t="n">
         <v>15.16999999999999</v>
@@ -17160,7 +17176,7 @@
         <v>23.00000000000011</v>
       </c>
       <c r="K332" t="n">
-        <v>-19.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>15.17999999999999</v>
@@ -17211,7 +17227,7 @@
         <v>23.10000000000012</v>
       </c>
       <c r="K333" t="n">
-        <v>-9.090909090908928</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L333" t="n">
         <v>15.18999999999999</v>
@@ -17262,7 +17278,7 @@
         <v>23.10000000000012</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L334" t="n">
         <v>15.19999999999999</v>
@@ -17313,7 +17329,7 @@
         <v>23.30000000000012</v>
       </c>
       <c r="K335" t="n">
-        <v>-16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>15.19999999999999</v>
@@ -17364,7 +17380,7 @@
         <v>23.30000000000012</v>
       </c>
       <c r="K336" t="n">
-        <v>-9.090909090908928</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L336" t="n">
         <v>15.19999999999999</v>
@@ -17415,7 +17431,7 @@
         <v>23.30000000000012</v>
       </c>
       <c r="K337" t="n">
-        <v>-9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>15.18999999999999</v>
@@ -17466,7 +17482,7 @@
         <v>23.30000000000012</v>
       </c>
       <c r="K338" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L338" t="n">
         <v>15.18999999999999</v>
@@ -17568,7 +17584,7 @@
         <v>23.40000000000012</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L340" t="n">
         <v>15.18999999999999</v>
@@ -17619,7 +17635,7 @@
         <v>23.40000000000012</v>
       </c>
       <c r="K341" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>15.17999999999999</v>
@@ -17670,7 +17686,7 @@
         <v>23.40000000000012</v>
       </c>
       <c r="K342" t="n">
-        <v>9.090909090908928</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L342" t="n">
         <v>15.17999999999999</v>
@@ -17721,7 +17737,7 @@
         <v>23.40000000000012</v>
       </c>
       <c r="K343" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L343" t="n">
         <v>15.16999999999999</v>
@@ -17772,7 +17788,7 @@
         <v>23.40000000000012</v>
       </c>
       <c r="K344" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L344" t="n">
         <v>15.15999999999999</v>
@@ -17823,7 +17839,7 @@
         <v>23.40000000000012</v>
       </c>
       <c r="K345" t="n">
-        <v>11.11111111111091</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L345" t="n">
         <v>15.16999999999998</v>
@@ -17874,7 +17890,7 @@
         <v>23.50000000000012</v>
       </c>
       <c r="K346" t="n">
-        <v>19.99999999999982</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L346" t="n">
         <v>15.18999999999999</v>
@@ -17925,7 +17941,7 @@
         <v>23.50000000000012</v>
       </c>
       <c r="K347" t="n">
-        <v>11.11111111111111</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L347" t="n">
         <v>15.20999999999999</v>
@@ -17976,7 +17992,7 @@
         <v>23.50000000000012</v>
       </c>
       <c r="K348" t="n">
-        <v>24.99999999999978</v>
+        <v>100</v>
       </c>
       <c r="L348" t="n">
         <v>15.22999999999999</v>
@@ -18027,7 +18043,7 @@
         <v>23.50000000000012</v>
       </c>
       <c r="K349" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L349" t="n">
         <v>15.23999999999999</v>
@@ -18129,7 +18145,7 @@
         <v>23.60000000000012</v>
       </c>
       <c r="K351" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>15.23999999999999</v>
@@ -18231,7 +18247,7 @@
         <v>23.70000000000012</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L353" t="n">
         <v>15.24999999999999</v>
@@ -18282,7 +18298,7 @@
         <v>23.70000000000012</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L354" t="n">
         <v>15.26</v>
@@ -18333,7 +18349,7 @@
         <v>23.70000000000012</v>
       </c>
       <c r="K355" t="n">
-        <v>49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>15.27</v>
@@ -18384,7 +18400,7 @@
         <v>23.70000000000012</v>
       </c>
       <c r="K356" t="n">
-        <v>49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L356" t="n">
         <v>15.27</v>
@@ -18435,7 +18451,7 @@
         <v>23.70000000000012</v>
       </c>
       <c r="K357" t="n">
-        <v>49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>15.27</v>
@@ -18486,7 +18502,7 @@
         <v>23.70000000000012</v>
       </c>
       <c r="K358" t="n">
-        <v>49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>15.27</v>
@@ -18537,7 +18553,7 @@
         <v>23.80000000000013</v>
       </c>
       <c r="K359" t="n">
-        <v>49.99999999999956</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L359" t="n">
         <v>15.28</v>
@@ -18588,7 +18604,7 @@
         <v>23.80000000000013</v>
       </c>
       <c r="K360" t="n">
-        <v>49.99999999999956</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L360" t="n">
         <v>15.3</v>
@@ -18639,7 +18655,7 @@
         <v>23.90000000000013</v>
       </c>
       <c r="K361" t="n">
-        <v>59.99999999999929</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L361" t="n">
         <v>15.33</v>
@@ -18690,7 +18706,7 @@
         <v>24.00000000000013</v>
       </c>
       <c r="K362" t="n">
-        <v>66.66666666666578</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L362" t="n">
         <v>15.37</v>
@@ -18741,7 +18757,7 @@
         <v>24.10000000000013</v>
       </c>
       <c r="K363" t="n">
-        <v>71.42857142857041</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L363" t="n">
         <v>15.41</v>
@@ -18792,7 +18808,7 @@
         <v>24.20000000000013</v>
       </c>
       <c r="K364" t="n">
-        <v>74.99999999999912</v>
+        <v>99.99999999999858</v>
       </c>
       <c r="L364" t="n">
         <v>15.46</v>
@@ -18843,7 +18859,7 @@
         <v>24.20000000000013</v>
       </c>
       <c r="K365" t="n">
-        <v>74.99999999999912</v>
+        <v>99.99999999999858</v>
       </c>
       <c r="L365" t="n">
         <v>15.51</v>
@@ -18894,7 +18910,7 @@
         <v>24.30000000000013</v>
       </c>
       <c r="K366" t="n">
-        <v>49.99999999999911</v>
+        <v>66.66666666666549</v>
       </c>
       <c r="L366" t="n">
         <v>15.55</v>
@@ -18945,7 +18961,7 @@
         <v>24.50000000000014</v>
       </c>
       <c r="K367" t="n">
-        <v>59.99999999999911</v>
+        <v>74.99999999999889</v>
       </c>
       <c r="L367" t="n">
         <v>15.61</v>
@@ -19047,7 +19063,7 @@
         <v>24.80000000000014</v>
       </c>
       <c r="K369" t="n">
-        <v>38.46153846153791</v>
+        <v>39.99999999999947</v>
       </c>
       <c r="L369" t="n">
         <v>15.68999999999999</v>
@@ -19098,7 +19114,7 @@
         <v>24.80000000000014</v>
       </c>
       <c r="K370" t="n">
-        <v>49.9999999999994</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L370" t="n">
         <v>15.73</v>
@@ -19149,7 +19165,7 @@
         <v>24.80000000000014</v>
       </c>
       <c r="K371" t="n">
-        <v>49.9999999999994</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L371" t="n">
         <v>15.76</v>
@@ -19200,7 +19216,7 @@
         <v>24.80000000000014</v>
       </c>
       <c r="K372" t="n">
-        <v>49.9999999999994</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L372" t="n">
         <v>15.78</v>
@@ -19251,7 +19267,7 @@
         <v>24.80000000000014</v>
       </c>
       <c r="K373" t="n">
-        <v>45.45454545454481</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>15.79</v>
@@ -19302,7 +19318,7 @@
         <v>24.90000000000014</v>
       </c>
       <c r="K374" t="n">
-        <v>33.33333333333275</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L374" t="n">
         <v>15.78</v>
@@ -19353,7 +19369,7 @@
         <v>25.00000000000014</v>
       </c>
       <c r="K375" t="n">
-        <v>38.46153846153791</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L375" t="n">
         <v>15.78</v>
@@ -19404,7 +19420,7 @@
         <v>25.10000000000014</v>
       </c>
       <c r="K376" t="n">
-        <v>28.57142857142806</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L376" t="n">
         <v>15.78</v>
@@ -19455,7 +19471,7 @@
         <v>25.20000000000014</v>
       </c>
       <c r="K377" t="n">
-        <v>33.33333333333286</v>
+        <v>20</v>
       </c>
       <c r="L377" t="n">
         <v>15.77</v>
@@ -19506,7 +19522,7 @@
         <v>25.30000000000015</v>
       </c>
       <c r="K378" t="n">
-        <v>24.99999999999956</v>
+        <v>-20</v>
       </c>
       <c r="L378" t="n">
         <v>15.77</v>
@@ -19557,7 +19573,7 @@
         <v>25.40000000000015</v>
       </c>
       <c r="K379" t="n">
-        <v>12.49999999999978</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L379" t="n">
         <v>15.75</v>
@@ -19608,7 +19624,7 @@
         <v>25.40000000000015</v>
       </c>
       <c r="K380" t="n">
-        <v>12.49999999999978</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L380" t="n">
         <v>15.73</v>
@@ -19659,7 +19675,7 @@
         <v>25.40000000000015</v>
       </c>
       <c r="K381" t="n">
-        <v>6.666666666666549</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L381" t="n">
         <v>15.70999999999999</v>
@@ -19710,7 +19726,7 @@
         <v>25.50000000000015</v>
       </c>
       <c r="K382" t="n">
-        <v>6.666666666666549</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L382" t="n">
         <v>15.69999999999999</v>
@@ -19761,7 +19777,7 @@
         <v>25.60000000000015</v>
       </c>
       <c r="K383" t="n">
-        <v>-6.666666666666549</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L383" t="n">
         <v>15.67999999999999</v>
@@ -19812,7 +19828,7 @@
         <v>25.70000000000015</v>
       </c>
       <c r="K384" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L384" t="n">
         <v>15.67999999999999</v>
@@ -19863,7 +19879,7 @@
         <v>25.70000000000015</v>
       </c>
       <c r="K385" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L385" t="n">
         <v>15.66999999999999</v>
@@ -19914,7 +19930,7 @@
         <v>25.70000000000015</v>
       </c>
       <c r="K386" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L386" t="n">
         <v>15.66999999999999</v>
@@ -19965,7 +19981,7 @@
         <v>25.70000000000015</v>
       </c>
       <c r="K387" t="n">
-        <v>-16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>15.65999999999999</v>
@@ -20016,7 +20032,7 @@
         <v>25.90000000000015</v>
       </c>
       <c r="K388" t="n">
-        <v>-16.66666666666642</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L388" t="n">
         <v>15.63999999999999</v>
@@ -20067,7 +20083,7 @@
         <v>26.00000000000015</v>
       </c>
       <c r="K389" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>15.63999999999999</v>
@@ -20118,7 +20134,7 @@
         <v>26.00000000000015</v>
       </c>
       <c r="K390" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>15.63999999999999</v>
@@ -20169,7 +20185,7 @@
         <v>26.00000000000015</v>
       </c>
       <c r="K391" t="n">
-        <v>-16.66666666666662</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L391" t="n">
         <v>15.63999999999999</v>
@@ -20220,7 +20236,7 @@
         <v>26.10000000000015</v>
       </c>
       <c r="K392" t="n">
-        <v>-23.07692307692293</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L392" t="n">
         <v>15.61999999999999</v>
@@ -20271,7 +20287,7 @@
         <v>26.30000000000015</v>
       </c>
       <c r="K393" t="n">
-        <v>-6.666666666666714</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>15.62999999999999</v>
@@ -20322,7 +20338,7 @@
         <v>26.40000000000015</v>
       </c>
       <c r="K394" t="n">
-        <v>-6.666666666666611</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L394" t="n">
         <v>15.61999999999999</v>
@@ -20373,7 +20389,7 @@
         <v>26.50000000000015</v>
       </c>
       <c r="K395" t="n">
-        <v>-6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>15.61999999999999</v>
@@ -20424,7 +20440,7 @@
         <v>26.60000000000015</v>
       </c>
       <c r="K396" t="n">
-        <v>-6.666666666666611</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L396" t="n">
         <v>15.60999999999999</v>
@@ -20475,7 +20491,7 @@
         <v>26.60000000000015</v>
       </c>
       <c r="K397" t="n">
-        <v>-14.2857142857143</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L397" t="n">
         <v>15.59999999999999</v>
@@ -20526,7 +20542,7 @@
         <v>26.60000000000015</v>
       </c>
       <c r="K398" t="n">
-        <v>-7.69230769230764</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>15.60999999999999</v>
@@ -20577,7 +20593,7 @@
         <v>26.70000000000015</v>
       </c>
       <c r="K399" t="n">
-        <v>7.69230769230764</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L399" t="n">
         <v>15.61999999999999</v>
@@ -20679,7 +20695,7 @@
         <v>26.80000000000015</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L401" t="n">
         <v>15.61999999999999</v>
@@ -20730,7 +20746,7 @@
         <v>26.90000000000015</v>
       </c>
       <c r="K402" t="n">
-        <v>-14.28571428571418</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L402" t="n">
         <v>15.61999999999999</v>
@@ -20832,7 +20848,7 @@
         <v>27.10000000000016</v>
       </c>
       <c r="K404" t="n">
-        <v>-14.28571428571418</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L404" t="n">
         <v>15.59999999999999</v>
@@ -20883,7 +20899,7 @@
         <v>27.20000000000016</v>
       </c>
       <c r="K405" t="n">
-        <v>-6.666666666666611</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
         <v>15.58999999999999</v>
@@ -20934,7 +20950,7 @@
         <v>27.30000000000016</v>
       </c>
       <c r="K406" t="n">
-        <v>-12.49999999999989</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L406" t="n">
         <v>15.57999999999999</v>
@@ -20985,7 +21001,7 @@
         <v>27.30000000000016</v>
       </c>
       <c r="K407" t="n">
-        <v>-12.49999999999989</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L407" t="n">
         <v>15.56999999999999</v>
@@ -21036,7 +21052,7 @@
         <v>27.40000000000016</v>
       </c>
       <c r="K408" t="n">
-        <v>-6.666666666666596</v>
+        <v>-42.85714285714209</v>
       </c>
       <c r="L408" t="n">
         <v>15.54999999999999</v>
@@ -21087,7 +21103,7 @@
         <v>27.50000000000016</v>
       </c>
       <c r="K409" t="n">
-        <v>-6.666666666666579</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L409" t="n">
         <v>15.52999999999999</v>
@@ -21189,7 +21205,7 @@
         <v>27.60000000000016</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L411" t="n">
         <v>15.52999999999999</v>
@@ -21240,7 +21256,7 @@
         <v>27.60000000000016</v>
       </c>
       <c r="K412" t="n">
-        <v>6.666666666666579</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>15.53999999999999</v>
@@ -21291,7 +21307,7 @@
         <v>27.70000000000017</v>
       </c>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L413" t="n">
         <v>15.54999999999999</v>
@@ -21342,7 +21358,7 @@
         <v>27.70000000000017</v>
       </c>
       <c r="K414" t="n">
-        <v>7.692307692307556</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L414" t="n">
         <v>15.56999999999999</v>
@@ -21393,7 +21409,7 @@
         <v>27.70000000000017</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L415" t="n">
         <v>15.57999999999999</v>
@@ -21444,7 +21460,7 @@
         <v>27.90000000000017</v>
       </c>
       <c r="K416" t="n">
-        <v>-7.692307692307576</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>15.57999999999999</v>
@@ -21495,7 +21511,7 @@
         <v>27.90000000000017</v>
       </c>
       <c r="K417" t="n">
-        <v>-7.692307692307576</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L417" t="n">
         <v>15.57999999999999</v>
@@ -21546,7 +21562,7 @@
         <v>28.10000000000016</v>
       </c>
       <c r="K418" t="n">
-        <v>6.666666666666579</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L418" t="n">
         <v>15.60999999999999</v>
@@ -21597,7 +21613,7 @@
         <v>28.10000000000016</v>
       </c>
       <c r="K419" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L419" t="n">
         <v>15.62999999999999</v>
@@ -21750,7 +21766,7 @@
         <v>28.20000000000017</v>
       </c>
       <c r="K422" t="n">
-        <v>7.692307692307598</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L422" t="n">
         <v>15.62999999999999</v>
@@ -21801,7 +21817,7 @@
         <v>28.30000000000017</v>
       </c>
       <c r="K423" t="n">
-        <v>-7.692307692307598</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L423" t="n">
         <v>15.60999999999999</v>
@@ -21852,7 +21868,7 @@
         <v>28.50000000000017</v>
       </c>
       <c r="K424" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>15.60999999999999</v>
@@ -21903,7 +21919,7 @@
         <v>28.60000000000016</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L425" t="n">
         <v>15.59999999999999</v>
@@ -21954,7 +21970,7 @@
         <v>28.70000000000017</v>
       </c>
       <c r="K426" t="n">
-        <v>14.28571428571418</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L426" t="n">
         <v>15.61999999999999</v>
@@ -22005,7 +22021,7 @@
         <v>28.90000000000017</v>
       </c>
       <c r="K427" t="n">
-        <v>0</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L427" t="n">
         <v>15.61999999999999</v>
@@ -22056,7 +22072,7 @@
         <v>29.00000000000016</v>
       </c>
       <c r="K428" t="n">
-        <v>12.49999999999994</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L428" t="n">
         <v>15.60999999999999</v>
@@ -22107,7 +22123,7 @@
         <v>29.00000000000016</v>
       </c>
       <c r="K429" t="n">
-        <v>6.666666666666643</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>15.59999999999999</v>
@@ -22158,7 +22174,7 @@
         <v>29.10000000000016</v>
       </c>
       <c r="K430" t="n">
-        <v>6.666666666666643</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L430" t="n">
         <v>15.60999999999999</v>
@@ -22209,7 +22225,7 @@
         <v>29.30000000000017</v>
       </c>
       <c r="K431" t="n">
-        <v>17.64705882352942</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L431" t="n">
         <v>15.63999999999999</v>
@@ -22260,7 +22276,7 @@
         <v>29.40000000000017</v>
       </c>
       <c r="K432" t="n">
-        <v>11.11111111111114</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L432" t="n">
         <v>15.65999999999999</v>
@@ -22311,7 +22327,7 @@
         <v>29.40000000000017</v>
       </c>
       <c r="K433" t="n">
-        <v>5.882352941176544</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L433" t="n">
         <v>15.68999999999999</v>
@@ -22362,7 +22378,7 @@
         <v>29.40000000000017</v>
       </c>
       <c r="K434" t="n">
-        <v>5.882352941176544</v>
+        <v>25</v>
       </c>
       <c r="L434" t="n">
         <v>15.69999999999999</v>
@@ -22413,7 +22429,7 @@
         <v>29.60000000000017</v>
       </c>
       <c r="K435" t="n">
-        <v>15.78947368421055</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L435" t="n">
         <v>15.73999999999999</v>
@@ -22464,7 +22480,7 @@
         <v>29.80000000000017</v>
       </c>
       <c r="K436" t="n">
-        <v>15.78947368421055</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L436" t="n">
         <v>15.75</v>
@@ -22515,7 +22531,7 @@
         <v>29.90000000000017</v>
       </c>
       <c r="K437" t="n">
-        <v>19.99999999999998</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L437" t="n">
         <v>15.79</v>
@@ -22566,7 +22582,7 @@
         <v>29.90000000000017</v>
       </c>
       <c r="K438" t="n">
-        <v>11.11111111111114</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L438" t="n">
         <v>15.82</v>
@@ -22617,7 +22633,7 @@
         <v>30.00000000000017</v>
       </c>
       <c r="K439" t="n">
-        <v>5.263157894736901</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L439" t="n">
         <v>15.84</v>
@@ -22668,7 +22684,7 @@
         <v>30.10000000000017</v>
       </c>
       <c r="K440" t="n">
-        <v>15.78947368421052</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>15.86</v>
@@ -22719,7 +22735,7 @@
         <v>30.30000000000017</v>
       </c>
       <c r="K441" t="n">
-        <v>4.761904761904725</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L441" t="n">
         <v>15.84</v>
@@ -22770,7 +22786,7 @@
         <v>30.40000000000018</v>
       </c>
       <c r="K442" t="n">
-        <v>9.090909090909099</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>15.84</v>
@@ -22821,7 +22837,7 @@
         <v>30.50000000000018</v>
       </c>
       <c r="K443" t="n">
-        <v>9.090909090909017</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L443" t="n">
         <v>15.83</v>
@@ -22872,7 +22888,7 @@
         <v>30.60000000000018</v>
       </c>
       <c r="K444" t="n">
-        <v>-4.761904761904718</v>
+        <v>-39.99999999999961</v>
       </c>
       <c r="L444" t="n">
         <v>15.81</v>
@@ -22923,7 +22939,7 @@
         <v>30.60000000000018</v>
       </c>
       <c r="K445" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L445" t="n">
         <v>15.77</v>
@@ -22974,7 +22990,7 @@
         <v>30.80000000000018</v>
       </c>
       <c r="K446" t="n">
-        <v>4.761904761904794</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L446" t="n">
         <v>15.77</v>
@@ -23025,7 +23041,7 @@
         <v>31.00000000000018</v>
       </c>
       <c r="K447" t="n">
-        <v>4.761904761904701</v>
+        <v>-27.27272727272695</v>
       </c>
       <c r="L447" t="n">
         <v>15.73999999999999</v>
@@ -23076,7 +23092,7 @@
         <v>31.10000000000019</v>
       </c>
       <c r="K448" t="n">
-        <v>4.761904761904693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L448" t="n">
         <v>15.71999999999999</v>
@@ -23127,7 +23143,7 @@
         <v>31.10000000000019</v>
       </c>
       <c r="K449" t="n">
-        <v>4.761904761904693</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L449" t="n">
         <v>15.70999999999999</v>
@@ -23178,7 +23194,7 @@
         <v>31.20000000000019</v>
       </c>
       <c r="K450" t="n">
-        <v>4.761904761904779</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L450" t="n">
         <v>15.69999999999999</v>
@@ -23229,7 +23245,7 @@
         <v>31.20000000000019</v>
       </c>
       <c r="K451" t="n">
-        <v>-5.263157894736768</v>
+        <v>0</v>
       </c>
       <c r="L451" t="n">
         <v>15.70999999999999</v>
@@ -23280,7 +23296,7 @@
         <v>31.20000000000019</v>
       </c>
       <c r="K452" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L452" t="n">
         <v>15.70999999999999</v>
@@ -23331,7 +23347,7 @@
         <v>31.30000000000019</v>
       </c>
       <c r="K453" t="n">
-        <v>-5.263157894736862</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L453" t="n">
         <v>15.70999999999999</v>
@@ -23382,7 +23398,7 @@
         <v>31.50000000000019</v>
       </c>
       <c r="K454" t="n">
-        <v>4.761904761904693</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L454" t="n">
         <v>15.73999999999999</v>
@@ -23433,7 +23449,7 @@
         <v>31.60000000000019</v>
       </c>
       <c r="K455" t="n">
-        <v>-9.99999999999984</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>15.76</v>
@@ -23484,7 +23500,7 @@
         <v>31.60000000000019</v>
       </c>
       <c r="K456" t="n">
-        <v>0</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L456" t="n">
         <v>15.76</v>
@@ -23535,7 +23551,7 @@
         <v>31.70000000000019</v>
       </c>
       <c r="K457" t="n">
-        <v>-11.11111111111101</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>15.77</v>
@@ -23586,7 +23602,7 @@
         <v>31.70000000000019</v>
       </c>
       <c r="K458" t="n">
-        <v>-11.11111111111101</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>15.77</v>
@@ -23688,7 +23704,7 @@
         <v>31.9000000000002</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L460" t="n">
         <v>15.79</v>
@@ -23739,7 +23755,7 @@
         <v>32.0000000000002</v>
       </c>
       <c r="K461" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L461" t="n">
         <v>15.79</v>
@@ -23790,7 +23806,7 @@
         <v>32.0000000000002</v>
       </c>
       <c r="K462" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L462" t="n">
         <v>15.79</v>
@@ -23841,7 +23857,7 @@
         <v>32.0000000000002</v>
       </c>
       <c r="K463" t="n">
-        <v>6.666666666666667</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L463" t="n">
         <v>15.8</v>
@@ -23892,7 +23908,7 @@
         <v>32.0000000000002</v>
       </c>
       <c r="K464" t="n">
-        <v>14.28571428571416</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>15.79</v>
@@ -23943,7 +23959,7 @@
         <v>32.0000000000002</v>
       </c>
       <c r="K465" t="n">
-        <v>14.28571428571416</v>
+        <v>0</v>
       </c>
       <c r="L465" t="n">
         <v>15.79</v>
@@ -23994,7 +24010,7 @@
         <v>32.0000000000002</v>
       </c>
       <c r="K466" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L466" t="n">
         <v>15.79</v>
@@ -24045,7 +24061,7 @@
         <v>32.0000000000002</v>
       </c>
       <c r="K467" t="n">
-        <v>19.99999999999982</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L467" t="n">
         <v>15.8</v>
@@ -24096,7 +24112,7 @@
         <v>32.0000000000002</v>
       </c>
       <c r="K468" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L468" t="n">
         <v>15.81000000000001</v>
@@ -24147,7 +24163,7 @@
         <v>32.0000000000002</v>
       </c>
       <c r="K469" t="n">
-        <v>11.11111111111111</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L469" t="n">
         <v>15.81000000000001</v>
@@ -24197,9 +24213,7 @@
       <c r="J470" t="n">
         <v>32.0000000000002</v>
       </c>
-      <c r="K470" t="n">
-        <v>0</v>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>15.80000000000001</v>
       </c>
@@ -24248,9 +24262,7 @@
       <c r="J471" t="n">
         <v>32.0000000000002</v>
       </c>
-      <c r="K471" t="n">
-        <v>0</v>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>15.80000000000001</v>
       </c>
@@ -24299,9 +24311,7 @@
       <c r="J472" t="n">
         <v>32.0000000000002</v>
       </c>
-      <c r="K472" t="n">
-        <v>0</v>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>15.80000000000001</v>
       </c>
@@ -24351,7 +24361,7 @@
         <v>32.1000000000002</v>
       </c>
       <c r="K473" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L473" t="n">
         <v>15.79</v>
@@ -24402,7 +24412,7 @@
         <v>32.2000000000002</v>
       </c>
       <c r="K474" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>15.79</v>
@@ -24555,7 +24565,7 @@
         <v>32.4000000000002</v>
       </c>
       <c r="K477" t="n">
-        <v>42.85714285714235</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L477" t="n">
         <v>15.81</v>
@@ -24606,7 +24616,7 @@
         <v>32.4000000000002</v>
       </c>
       <c r="K478" t="n">
-        <v>42.85714285714235</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L478" t="n">
         <v>15.83</v>
@@ -24657,7 +24667,7 @@
         <v>32.50000000000021</v>
       </c>
       <c r="K479" t="n">
-        <v>14.28571428571403</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L479" t="n">
         <v>15.84</v>
@@ -24708,7 +24718,7 @@
         <v>32.50000000000021</v>
       </c>
       <c r="K480" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L480" t="n">
         <v>15.85</v>
@@ -24810,7 +24820,7 @@
         <v>32.60000000000021</v>
       </c>
       <c r="K482" t="n">
-        <v>33.33333333333275</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L482" t="n">
         <v>15.89</v>
@@ -24861,7 +24871,7 @@
         <v>32.70000000000021</v>
       </c>
       <c r="K483" t="n">
-        <v>42.85714285714235</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L483" t="n">
         <v>15.93</v>
@@ -24912,7 +24922,7 @@
         <v>32.70000000000021</v>
       </c>
       <c r="K484" t="n">
-        <v>42.85714285714235</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L484" t="n">
         <v>15.96</v>
@@ -24963,7 +24973,7 @@
         <v>32.70000000000021</v>
       </c>
       <c r="K485" t="n">
-        <v>42.85714285714235</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L485" t="n">
         <v>15.98999999999999</v>
@@ -25014,7 +25024,7 @@
         <v>32.70000000000021</v>
       </c>
       <c r="K486" t="n">
-        <v>42.85714285714235</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L486" t="n">
         <v>16.01999999999999</v>
@@ -25065,7 +25075,7 @@
         <v>32.70000000000021</v>
       </c>
       <c r="K487" t="n">
-        <v>42.85714285714235</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L487" t="n">
         <v>16.02999999999999</v>
@@ -25116,7 +25126,7 @@
         <v>32.80000000000021</v>
       </c>
       <c r="K488" t="n">
-        <v>49.99999999999911</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L488" t="n">
         <v>16.04999999999999</v>
@@ -25167,7 +25177,7 @@
         <v>32.9000000000002</v>
       </c>
       <c r="K489" t="n">
-        <v>33.3333333333332</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L489" t="n">
         <v>16.06999999999999</v>
@@ -25218,7 +25228,7 @@
         <v>33.00000000000021</v>
       </c>
       <c r="K490" t="n">
-        <v>19.99999999999979</v>
+        <v>0</v>
       </c>
       <c r="L490" t="n">
         <v>16.07999999999999</v>
@@ -25269,7 +25279,7 @@
         <v>33.10000000000021</v>
       </c>
       <c r="K491" t="n">
-        <v>27.27272727272713</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L491" t="n">
         <v>16.08999999999999</v>
@@ -25320,7 +25330,7 @@
         <v>33.2000000000002</v>
       </c>
       <c r="K492" t="n">
-        <v>33.33333333333314</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L492" t="n">
         <v>16.10999999999999</v>
@@ -25371,7 +25381,7 @@
         <v>33.2000000000002</v>
       </c>
       <c r="K493" t="n">
-        <v>45.4545454545454</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L493" t="n">
         <v>16.11999999999999</v>
@@ -25422,7 +25432,7 @@
         <v>33.3000000000002</v>
       </c>
       <c r="K494" t="n">
-        <v>27.27272727272748</v>
+        <v>0</v>
       </c>
       <c r="L494" t="n">
         <v>16.11999999999999</v>
@@ -25473,7 +25483,7 @@
         <v>33.3000000000002</v>
       </c>
       <c r="K495" t="n">
-        <v>27.27272727272748</v>
+        <v>0</v>
       </c>
       <c r="L495" t="n">
         <v>16.11999999999999</v>
@@ -25524,7 +25534,7 @@
         <v>33.4000000000002</v>
       </c>
       <c r="K496" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L496" t="n">
         <v>16.10999999999999</v>
@@ -25575,7 +25585,7 @@
         <v>33.5000000000002</v>
       </c>
       <c r="K497" t="n">
-        <v>9.090909090909268</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L497" t="n">
         <v>16.10999999999999</v>
@@ -25626,7 +25636,7 @@
         <v>33.5000000000002</v>
       </c>
       <c r="K498" t="n">
-        <v>9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>16.09999999999999</v>
@@ -25677,7 +25687,7 @@
         <v>33.5000000000002</v>
       </c>
       <c r="K499" t="n">
-        <v>20.00000000000025</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L499" t="n">
         <v>16.09999999999999</v>
@@ -25728,7 +25738,7 @@
         <v>33.6000000000002</v>
       </c>
       <c r="K500" t="n">
-        <v>9.090909090909104</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L500" t="n">
         <v>16.09999999999999</v>
@@ -25779,7 +25789,7 @@
         <v>33.6000000000002</v>
       </c>
       <c r="K501" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L501" t="n">
         <v>16.08999999999999</v>
@@ -25830,7 +25840,7 @@
         <v>33.6000000000002</v>
       </c>
       <c r="K502" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L502" t="n">
         <v>16.06999999999999</v>
@@ -25932,7 +25942,7 @@
         <v>33.8000000000002</v>
       </c>
       <c r="K504" t="n">
-        <v>-9.090909090909268</v>
+        <v>-20</v>
       </c>
       <c r="L504" t="n">
         <v>16.04999999999999</v>
@@ -25983,7 +25993,7 @@
         <v>33.9000000000002</v>
       </c>
       <c r="K505" t="n">
-        <v>-16.66666666666682</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L505" t="n">
         <v>16.02999999999999</v>
@@ -26034,7 +26044,7 @@
         <v>34.00000000000021</v>
       </c>
       <c r="K506" t="n">
-        <v>-7.692307692307819</v>
+        <v>-20</v>
       </c>
       <c r="L506" t="n">
         <v>16.02999999999999</v>
@@ -26085,7 +26095,7 @@
         <v>34.10000000000021</v>
       </c>
       <c r="K507" t="n">
-        <v>-14.28571428571438</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L507" t="n">
         <v>16.00999999999999</v>
@@ -26136,7 +26146,7 @@
         <v>34.20000000000021</v>
       </c>
       <c r="K508" t="n">
-        <v>-14.28571428571425</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L508" t="n">
         <v>15.99999999999999</v>
@@ -26187,7 +26197,7 @@
         <v>34.20000000000021</v>
       </c>
       <c r="K509" t="n">
-        <v>-7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L509" t="n">
         <v>15.98999999999999</v>
@@ -26238,7 +26248,7 @@
         <v>34.30000000000021</v>
       </c>
       <c r="K510" t="n">
-        <v>7.692307692307776</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L510" t="n">
         <v>15.99999999999999</v>
@@ -26289,7 +26299,7 @@
         <v>34.30000000000021</v>
       </c>
       <c r="K511" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L511" t="n">
         <v>16.00999999999999</v>
@@ -26340,7 +26350,7 @@
         <v>34.30000000000021</v>
       </c>
       <c r="K512" t="n">
-        <v>-9.090909090908825</v>
+        <v>0</v>
       </c>
       <c r="L512" t="n">
         <v>16.01999999999999</v>
@@ -26391,7 +26401,7 @@
         <v>34.30000000000021</v>
       </c>
       <c r="K513" t="n">
-        <v>-9.090909090908825</v>
+        <v>20</v>
       </c>
       <c r="L513" t="n">
         <v>16.01999999999999</v>
@@ -26442,7 +26452,7 @@
         <v>34.30000000000021</v>
       </c>
       <c r="K514" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L514" t="n">
         <v>16.02999999999999</v>
@@ -26493,7 +26503,7 @@
         <v>34.30000000000021</v>
       </c>
       <c r="K515" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L515" t="n">
         <v>16.04999999999999</v>
@@ -26544,7 +26554,7 @@
         <v>34.30000000000021</v>
       </c>
       <c r="K516" t="n">
-        <v>11.11111111111111</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L516" t="n">
         <v>16.05999999999999</v>
@@ -26595,7 +26605,7 @@
         <v>34.4000000000002</v>
       </c>
       <c r="K517" t="n">
-        <v>11.1111111111108</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L517" t="n">
         <v>16.08999999999999</v>
@@ -26646,7 +26656,7 @@
         <v>34.4000000000002</v>
       </c>
       <c r="K518" t="n">
-        <v>11.1111111111108</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L518" t="n">
         <v>16.10999999999999</v>
@@ -26697,7 +26707,7 @@
         <v>34.4000000000002</v>
       </c>
       <c r="K519" t="n">
-        <v>11.1111111111108</v>
+        <v>100.0000000000036</v>
       </c>
       <c r="L519" t="n">
         <v>16.12999999999999</v>
@@ -26748,7 +26758,7 @@
         <v>34.4000000000002</v>
       </c>
       <c r="K520" t="n">
-        <v>24.99999999999978</v>
+        <v>100.0000000000036</v>
       </c>
       <c r="L520" t="n">
         <v>16.13999999999999</v>
@@ -26799,7 +26809,7 @@
         <v>34.50000000000021</v>
       </c>
       <c r="K521" t="n">
-        <v>33.3333333333332</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L521" t="n">
         <v>16.15999999999999</v>
@@ -26850,7 +26860,7 @@
         <v>34.50000000000021</v>
       </c>
       <c r="K522" t="n">
-        <v>33.3333333333332</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L522" t="n">
         <v>16.17999999999999</v>
@@ -26901,7 +26911,7 @@
         <v>34.60000000000021</v>
       </c>
       <c r="K523" t="n">
-        <v>11.1111111111108</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L523" t="n">
         <v>16.18999999999999</v>
@@ -26952,7 +26962,7 @@
         <v>34.60000000000021</v>
       </c>
       <c r="K524" t="n">
-        <v>24.99999999999978</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L524" t="n">
         <v>16.19999999999999</v>
@@ -27003,7 +27013,7 @@
         <v>34.60000000000021</v>
       </c>
       <c r="K525" t="n">
-        <v>42.85714285714253</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L525" t="n">
         <v>16.20999999999999</v>
@@ -27054,7 +27064,7 @@
         <v>34.60000000000021</v>
       </c>
       <c r="K526" t="n">
-        <v>33.33333333333314</v>
+        <v>0</v>
       </c>
       <c r="L526" t="n">
         <v>16.21999999999999</v>
@@ -27105,7 +27115,7 @@
         <v>34.7000000000002</v>
       </c>
       <c r="K527" t="n">
-        <v>33.33333333333383</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L527" t="n">
         <v>16.20999999999999</v>
@@ -27156,7 +27166,7 @@
         <v>34.8000000000002</v>
       </c>
       <c r="K528" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L528" t="n">
         <v>16.18999999999999</v>
@@ -27207,7 +27217,7 @@
         <v>34.8000000000002</v>
       </c>
       <c r="K529" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L529" t="n">
         <v>16.16999999999999</v>
@@ -27258,7 +27268,7 @@
         <v>34.9000000000002</v>
       </c>
       <c r="K530" t="n">
-        <v>-33.33333333333383</v>
+        <v>-100.0000000000004</v>
       </c>
       <c r="L530" t="n">
         <v>16.13999999999999</v>
@@ -27309,7 +27319,7 @@
         <v>35.00000000000021</v>
       </c>
       <c r="K531" t="n">
-        <v>-42.85714285714322</v>
+        <v>-100</v>
       </c>
       <c r="L531" t="n">
         <v>16.08999999999999</v>
@@ -27360,7 +27370,7 @@
         <v>35.10000000000021</v>
       </c>
       <c r="K532" t="n">
-        <v>-50.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L532" t="n">
         <v>16.02999999999999</v>
@@ -27411,7 +27421,7 @@
         <v>35.10000000000021</v>
       </c>
       <c r="K533" t="n">
-        <v>-50.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L533" t="n">
         <v>15.97999999999999</v>
@@ -27462,7 +27472,7 @@
         <v>35.10000000000021</v>
       </c>
       <c r="K534" t="n">
-        <v>-50.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L534" t="n">
         <v>15.92999999999999</v>
@@ -27513,7 +27523,7 @@
         <v>35.20000000000021</v>
       </c>
       <c r="K535" t="n">
-        <v>-55.55555555555583</v>
+        <v>-99.9999999999997</v>
       </c>
       <c r="L535" t="n">
         <v>15.86999999999999</v>
@@ -27564,7 +27574,7 @@
         <v>35.30000000000021</v>
       </c>
       <c r="K536" t="n">
-        <v>-60.00000000000014</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L536" t="n">
         <v>15.79999999999999</v>
@@ -27615,7 +27625,7 @@
         <v>35.50000000000021</v>
       </c>
       <c r="K537" t="n">
-        <v>-45.45454545454511</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L537" t="n">
         <v>15.75999999999999</v>
@@ -27666,7 +27676,7 @@
         <v>35.60000000000021</v>
       </c>
       <c r="K538" t="n">
-        <v>-33.33333333333294</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L538" t="n">
         <v>15.73999999999999</v>
@@ -27717,7 +27727,7 @@
         <v>35.60000000000021</v>
       </c>
       <c r="K539" t="n">
-        <v>-33.33333333333294</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L539" t="n">
         <v>15.71999999999999</v>
@@ -27768,7 +27778,7 @@
         <v>35.60000000000021</v>
       </c>
       <c r="K540" t="n">
-        <v>-33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L540" t="n">
         <v>15.70999999999999</v>
@@ -27819,7 +27829,7 @@
         <v>35.70000000000022</v>
       </c>
       <c r="K541" t="n">
-        <v>-33.33333333333309</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L541" t="n">
         <v>15.71999999999999</v>
@@ -27870,7 +27880,7 @@
         <v>35.80000000000022</v>
       </c>
       <c r="K542" t="n">
-        <v>-38.46153846153813</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L542" t="n">
         <v>15.73</v>
@@ -27921,7 +27931,7 @@
         <v>35.80000000000022</v>
       </c>
       <c r="K543" t="n">
-        <v>-33.33333333333294</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L543" t="n">
         <v>15.74</v>
@@ -27972,7 +27982,7 @@
         <v>36.00000000000021</v>
       </c>
       <c r="K544" t="n">
-        <v>-14.28571428571418</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L544" t="n">
         <v>15.77</v>
@@ -28023,7 +28033,7 @@
         <v>36.10000000000021</v>
       </c>
       <c r="K545" t="n">
-        <v>-19.99999999999983</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L545" t="n">
         <v>15.8</v>
@@ -28074,7 +28084,7 @@
         <v>36.20000000000022</v>
       </c>
       <c r="K546" t="n">
-        <v>-12.49999999999989</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L546" t="n">
         <v>15.85</v>
@@ -28125,7 +28135,7 @@
         <v>36.30000000000022</v>
       </c>
       <c r="K547" t="n">
-        <v>-12.49999999999994</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L547" t="n">
         <v>15.87</v>
@@ -28176,7 +28186,7 @@
         <v>36.50000000000022</v>
       </c>
       <c r="K548" t="n">
-        <v>5.882352941176496</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L548" t="n">
         <v>15.9</v>
@@ -28227,7 +28237,7 @@
         <v>36.50000000000022</v>
       </c>
       <c r="K549" t="n">
-        <v>5.882352941176496</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L549" t="n">
         <v>15.93</v>
@@ -28278,7 +28288,7 @@
         <v>36.50000000000022</v>
       </c>
       <c r="K550" t="n">
-        <v>12.49999999999994</v>
+        <v>25</v>
       </c>
       <c r="L550" t="n">
         <v>15.96</v>
@@ -28329,7 +28339,7 @@
         <v>36.60000000000022</v>
       </c>
       <c r="K551" t="n">
-        <v>24.99999999999967</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L551" t="n">
         <v>15.98999999999999</v>
@@ -28380,7 +28390,7 @@
         <v>36.80000000000022</v>
       </c>
       <c r="K552" t="n">
-        <v>17.64705882352928</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L552" t="n">
         <v>16.00999999999999</v>
@@ -28431,7 +28441,7 @@
         <v>36.80000000000022</v>
       </c>
       <c r="K553" t="n">
-        <v>17.64705882352928</v>
+        <v>0</v>
       </c>
       <c r="L553" t="n">
         <v>16.02999999999999</v>
@@ -28482,7 +28492,7 @@
         <v>37.00000000000023</v>
       </c>
       <c r="K554" t="n">
-        <v>26.31578947368394</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L554" t="n">
         <v>16.04999999999999</v>
@@ -28533,7 +28543,7 @@
         <v>37.00000000000023</v>
       </c>
       <c r="K555" t="n">
-        <v>33.33333333333297</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L555" t="n">
         <v>16.07999999999999</v>
@@ -28584,7 +28594,7 @@
         <v>37.10000000000022</v>
       </c>
       <c r="K556" t="n">
-        <v>33.3333333333332</v>
+        <v>25</v>
       </c>
       <c r="L556" t="n">
         <v>16.08999999999999</v>
@@ -28635,7 +28645,7 @@
         <v>37.10000000000022</v>
       </c>
       <c r="K557" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L557" t="n">
         <v>16.10999999999999</v>
@@ -28686,7 +28696,7 @@
         <v>37.10000000000022</v>
       </c>
       <c r="K558" t="n">
-        <v>19.99999999999995</v>
+        <v>0</v>
       </c>
       <c r="L558" t="n">
         <v>16.10999999999999</v>
@@ -28737,7 +28747,7 @@
         <v>37.10000000000022</v>
       </c>
       <c r="K559" t="n">
-        <v>19.99999999999995</v>
+        <v>0</v>
       </c>
       <c r="L559" t="n">
         <v>16.10999999999999</v>
@@ -28788,7 +28798,7 @@
         <v>37.10000000000022</v>
       </c>
       <c r="K560" t="n">
-        <v>19.99999999999995</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L560" t="n">
         <v>16.10999999999999</v>
@@ -28839,7 +28849,7 @@
         <v>37.10000000000022</v>
       </c>
       <c r="K561" t="n">
-        <v>14.2857142857143</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L561" t="n">
         <v>16.09999999999999</v>
@@ -28890,7 +28900,7 @@
         <v>37.10000000000022</v>
       </c>
       <c r="K562" t="n">
-        <v>23.07692307692306</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L562" t="n">
         <v>16.10999999999999</v>
@@ -28941,7 +28951,7 @@
         <v>37.10000000000022</v>
       </c>
       <c r="K563" t="n">
-        <v>23.07692307692306</v>
+        <v>-100.0000000000036</v>
       </c>
       <c r="L563" t="n">
         <v>16.11999999999999</v>
@@ -28992,7 +29002,7 @@
         <v>37.20000000000022</v>
       </c>
       <c r="K564" t="n">
-        <v>0</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L564" t="n">
         <v>16.09999999999999</v>
@@ -29043,7 +29053,7 @@
         <v>37.20000000000022</v>
       </c>
       <c r="K565" t="n">
-        <v>9.090909090908989</v>
+        <v>-100</v>
       </c>
       <c r="L565" t="n">
         <v>16.07999999999999</v>
@@ -29094,7 +29104,7 @@
         <v>37.20000000000022</v>
       </c>
       <c r="K566" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L566" t="n">
         <v>16.06999999999999</v>
@@ -29145,7 +29155,7 @@
         <v>37.30000000000022</v>
       </c>
       <c r="K567" t="n">
-        <v>0</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L567" t="n">
         <v>16.04999999999999</v>
@@ -29196,7 +29206,7 @@
         <v>37.30000000000022</v>
       </c>
       <c r="K568" t="n">
-        <v>-25</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L568" t="n">
         <v>16.02999999999999</v>
@@ -29298,7 +29308,7 @@
         <v>37.60000000000023</v>
       </c>
       <c r="K570" t="n">
-        <v>-9.09090909090915</v>
+        <v>-20</v>
       </c>
       <c r="L570" t="n">
         <v>16.01999999999999</v>
@@ -29349,7 +29359,7 @@
         <v>37.60000000000023</v>
       </c>
       <c r="K571" t="n">
-        <v>-19.99999999999979</v>
+        <v>-20</v>
       </c>
       <c r="L571" t="n">
         <v>16.00999999999999</v>
@@ -29400,7 +29410,7 @@
         <v>37.70000000000023</v>
       </c>
       <c r="K572" t="n">
-        <v>11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L572" t="n">
         <v>16.00999999999999</v>
@@ -29502,7 +29512,7 @@
         <v>37.90000000000023</v>
       </c>
       <c r="K574" t="n">
-        <v>-33.333333333333</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L574" t="n">
         <v>15.98999999999999</v>
@@ -29553,7 +29563,7 @@
         <v>37.90000000000023</v>
       </c>
       <c r="K575" t="n">
-        <v>-33.333333333333</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L575" t="n">
         <v>15.98</v>
@@ -29604,7 +29614,7 @@
         <v>38.00000000000023</v>
       </c>
       <c r="K576" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L576" t="n">
         <v>15.98</v>
@@ -29655,7 +29665,7 @@
         <v>38.10000000000024</v>
       </c>
       <c r="K577" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L577" t="n">
         <v>15.99999999999999</v>
@@ -29706,7 +29716,7 @@
         <v>38.20000000000024</v>
       </c>
       <c r="K578" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L578" t="n">
         <v>16.00999999999999</v>
@@ -29757,7 +29767,7 @@
         <v>38.30000000000024</v>
       </c>
       <c r="K579" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L579" t="n">
         <v>16.00999999999999</v>
@@ -29808,7 +29818,7 @@
         <v>38.40000000000024</v>
       </c>
       <c r="K580" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L580" t="n">
         <v>16.00999999999999</v>
@@ -29859,7 +29869,7 @@
         <v>38.40000000000024</v>
       </c>
       <c r="K581" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L581" t="n">
         <v>16.00999999999999</v>
@@ -29910,7 +29920,7 @@
         <v>38.50000000000024</v>
       </c>
       <c r="K582" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L582" t="n">
         <v>16.00999999999999</v>
@@ -29961,7 +29971,7 @@
         <v>38.60000000000024</v>
       </c>
       <c r="K583" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L583" t="n">
         <v>16.00999999999999</v>
@@ -30012,7 +30022,7 @@
         <v>38.70000000000024</v>
       </c>
       <c r="K584" t="n">
-        <v>6.666666666666667</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L584" t="n">
         <v>16.02999999999999</v>
@@ -30114,7 +30124,7 @@
         <v>38.90000000000025</v>
       </c>
       <c r="K586" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L586" t="n">
         <v>16.04999999999999</v>
@@ -30165,7 +30175,7 @@
         <v>38.90000000000025</v>
       </c>
       <c r="K587" t="n">
-        <v>12.49999999999989</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L587" t="n">
         <v>16.04999999999999</v>
@@ -30216,7 +30226,7 @@
         <v>38.90000000000025</v>
       </c>
       <c r="K588" t="n">
-        <v>12.49999999999989</v>
+        <v>0</v>
       </c>
       <c r="L588" t="n">
         <v>16.05999999999999</v>
@@ -30267,7 +30277,7 @@
         <v>39.00000000000025</v>
       </c>
       <c r="K589" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>16.04999999999999</v>
@@ -30369,7 +30379,7 @@
         <v>39.00000000000025</v>
       </c>
       <c r="K591" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L591" t="n">
         <v>16.04999999999999</v>
@@ -30420,7 +30430,7 @@
         <v>39.20000000000024</v>
       </c>
       <c r="K592" t="n">
-        <v>6.666666666666461</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L592" t="n">
         <v>16.05999999999999</v>
@@ -30471,7 +30481,7 @@
         <v>39.30000000000024</v>
       </c>
       <c r="K593" t="n">
-        <v>6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L593" t="n">
         <v>16.06999999999999</v>
@@ -30522,7 +30532,7 @@
         <v>39.50000000000024</v>
       </c>
       <c r="K594" t="n">
-        <v>0</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L594" t="n">
         <v>16.04999999999999</v>
@@ -30573,7 +30583,7 @@
         <v>39.50000000000024</v>
       </c>
       <c r="K595" t="n">
-        <v>0</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L595" t="n">
         <v>16.03999999999999</v>
@@ -30624,7 +30634,7 @@
         <v>39.60000000000024</v>
       </c>
       <c r="K596" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L596" t="n">
         <v>16.02999999999999</v>
@@ -30675,7 +30685,7 @@
         <v>39.60000000000024</v>
       </c>
       <c r="K597" t="n">
-        <v>-6.66666666666673</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L597" t="n">
         <v>16.01999999999999</v>
@@ -30777,7 +30787,7 @@
         <v>39.60000000000024</v>
       </c>
       <c r="K599" t="n">
-        <v>-7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L599" t="n">
         <v>16.00999999999999</v>
@@ -30879,7 +30889,7 @@
         <v>39.70000000000024</v>
       </c>
       <c r="K601" t="n">
-        <v>-7.69230769230764</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L601" t="n">
         <v>15.99999999999999</v>
@@ -30930,7 +30940,7 @@
         <v>39.70000000000024</v>
       </c>
       <c r="K602" t="n">
-        <v>-16.66666666666671</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L602" t="n">
         <v>15.97</v>
@@ -30981,7 +30991,7 @@
         <v>39.80000000000025</v>
       </c>
       <c r="K603" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L603" t="n">
         <v>15.96</v>
@@ -31032,7 +31042,7 @@
         <v>39.80000000000025</v>
       </c>
       <c r="K604" t="n">
-        <v>-9.090909090909207</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L604" t="n">
         <v>15.97</v>
@@ -31134,7 +31144,7 @@
         <v>39.80000000000025</v>
       </c>
       <c r="K606" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L606" t="n">
         <v>15.98</v>
@@ -31185,7 +31195,7 @@
         <v>39.90000000000025</v>
       </c>
       <c r="K607" t="n">
-        <v>-20.00000000000011</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L607" t="n">
         <v>15.97</v>
@@ -31236,7 +31246,7 @@
         <v>40.00000000000025</v>
       </c>
       <c r="K608" t="n">
-        <v>-27.27272727272731</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L608" t="n">
         <v>15.95</v>
@@ -31287,7 +31297,7 @@
         <v>40.00000000000025</v>
       </c>
       <c r="K609" t="n">
-        <v>-19.99999999999993</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L609" t="n">
         <v>15.93</v>
@@ -31338,7 +31348,7 @@
         <v>40.20000000000024</v>
       </c>
       <c r="K610" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L610" t="n">
         <v>15.93</v>
@@ -31389,7 +31399,7 @@
         <v>40.20000000000024</v>
       </c>
       <c r="K611" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L611" t="n">
         <v>15.94</v>
@@ -31440,7 +31450,7 @@
         <v>40.30000000000025</v>
       </c>
       <c r="K612" t="n">
-        <v>-9.090909090908886</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L612" t="n">
         <v>15.96</v>
@@ -31491,7 +31501,7 @@
         <v>40.40000000000025</v>
       </c>
       <c r="K613" t="n">
-        <v>-9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L613" t="n">
         <v>15.96</v>
@@ -31542,7 +31552,7 @@
         <v>40.40000000000025</v>
       </c>
       <c r="K614" t="n">
-        <v>11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L614" t="n">
         <v>15.96</v>
@@ -31593,7 +31603,7 @@
         <v>40.40000000000025</v>
       </c>
       <c r="K615" t="n">
-        <v>11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L615" t="n">
         <v>15.96</v>
@@ -31644,7 +31654,7 @@
         <v>40.50000000000025</v>
       </c>
       <c r="K616" t="n">
-        <v>11.1111111111112</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L616" t="n">
         <v>15.97</v>
@@ -31695,7 +31705,7 @@
         <v>40.70000000000024</v>
       </c>
       <c r="K617" t="n">
-        <v>27.27272727272731</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L617" t="n">
         <v>16.01</v>
@@ -31746,7 +31756,7 @@
         <v>40.70000000000024</v>
       </c>
       <c r="K618" t="n">
-        <v>27.27272727272731</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L618" t="n">
         <v>16.06</v>
@@ -31797,7 +31807,7 @@
         <v>40.80000000000025</v>
       </c>
       <c r="K619" t="n">
-        <v>16.66666666666657</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L619" t="n">
         <v>16.09999999999999</v>
@@ -31848,7 +31858,7 @@
         <v>40.90000000000025</v>
       </c>
       <c r="K620" t="n">
-        <v>23.07692307692306</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L620" t="n">
         <v>16.13</v>
@@ -31899,7 +31909,7 @@
         <v>41.00000000000024</v>
       </c>
       <c r="K621" t="n">
-        <v>38.46153846153841</v>
+        <v>42.85714285714271</v>
       </c>
       <c r="L621" t="n">
         <v>16.16999999999999</v>
@@ -31950,7 +31960,7 @@
         <v>41.20000000000024</v>
       </c>
       <c r="K622" t="n">
-        <v>46.66666666666674</v>
+        <v>75.00000000000044</v>
       </c>
       <c r="L622" t="n">
         <v>16.22</v>
@@ -32001,7 +32011,7 @@
         <v>41.20000000000024</v>
       </c>
       <c r="K623" t="n">
-        <v>42.857142857143</v>
+        <v>75.00000000000044</v>
       </c>
       <c r="L623" t="n">
         <v>16.27999999999999</v>
@@ -32052,7 +32062,7 @@
         <v>41.30000000000025</v>
       </c>
       <c r="K624" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L624" t="n">
         <v>16.32999999999999</v>
@@ -32103,7 +32113,7 @@
         <v>41.40000000000025</v>
       </c>
       <c r="K625" t="n">
-        <v>37.50000000000006</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L625" t="n">
         <v>16.38999999999999</v>
@@ -32154,7 +32164,7 @@
         <v>41.40000000000025</v>
       </c>
       <c r="K626" t="n">
-        <v>37.50000000000006</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L626" t="n">
         <v>16.43999999999999</v>
@@ -32205,7 +32215,7 @@
         <v>41.40000000000025</v>
       </c>
       <c r="K627" t="n">
-        <v>46.66666666666674</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L627" t="n">
         <v>16.46999999999999</v>
@@ -32256,7 +32266,7 @@
         <v>41.40000000000025</v>
       </c>
       <c r="K628" t="n">
-        <v>57.14285714285725</v>
+        <v>66.66666666666686</v>
       </c>
       <c r="L628" t="n">
         <v>16.49999999999999</v>
@@ -32307,7 +32317,7 @@
         <v>41.50000000000024</v>
       </c>
       <c r="K629" t="n">
-        <v>60.00000000000018</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L629" t="n">
         <v>16.54999999999999</v>
@@ -32358,7 +32368,7 @@
         <v>41.50000000000024</v>
       </c>
       <c r="K630" t="n">
-        <v>53.84615384615391</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L630" t="n">
         <v>16.58999999999999</v>
@@ -32409,7 +32419,7 @@
         <v>41.60000000000024</v>
       </c>
       <c r="K631" t="n">
-        <v>57.14285714285725</v>
+        <v>50</v>
       </c>
       <c r="L631" t="n">
         <v>16.62999999999999</v>
@@ -32460,7 +32470,7 @@
         <v>41.70000000000024</v>
       </c>
       <c r="K632" t="n">
-        <v>42.85714285714275</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L632" t="n">
         <v>16.63999999999999</v>
@@ -32511,7 +32521,7 @@
         <v>41.80000000000025</v>
       </c>
       <c r="K633" t="n">
-        <v>57.14285714285725</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L633" t="n">
         <v>16.65999999999999</v>
@@ -32562,7 +32572,7 @@
         <v>42.00000000000024</v>
       </c>
       <c r="K634" t="n">
-        <v>37.50000000000022</v>
+        <v>0</v>
       </c>
       <c r="L634" t="n">
         <v>16.66999999999999</v>
@@ -32613,7 +32623,7 @@
         <v>42.20000000000024</v>
       </c>
       <c r="K635" t="n">
-        <v>44.44444444444456</v>
+        <v>25</v>
       </c>
       <c r="L635" t="n">
         <v>16.68999999999999</v>
@@ -32664,7 +32674,7 @@
         <v>42.20000000000024</v>
       </c>
       <c r="K636" t="n">
-        <v>41.17647058823535</v>
+        <v>25</v>
       </c>
       <c r="L636" t="n">
         <v>16.70999999999999</v>
@@ -32715,7 +32725,7 @@
         <v>42.40000000000025</v>
       </c>
       <c r="K637" t="n">
-        <v>17.64705882352942</v>
+        <v>0</v>
       </c>
       <c r="L637" t="n">
         <v>16.70999999999999</v>
@@ -32766,7 +32776,7 @@
         <v>42.50000000000024</v>
       </c>
       <c r="K638" t="n">
-        <v>22.22222222222218</v>
+        <v>0</v>
       </c>
       <c r="L638" t="n">
         <v>16.71999999999999</v>
@@ -32817,7 +32827,7 @@
         <v>42.60000000000024</v>
       </c>
       <c r="K639" t="n">
-        <v>33.33333333333346</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L639" t="n">
         <v>16.73</v>
@@ -32868,7 +32878,7 @@
         <v>42.60000000000024</v>
       </c>
       <c r="K640" t="n">
-        <v>29.41176470588243</v>
+        <v>0</v>
       </c>
       <c r="L640" t="n">
         <v>16.74</v>
@@ -32919,7 +32929,7 @@
         <v>42.60000000000024</v>
       </c>
       <c r="K641" t="n">
-        <v>25.00000000000011</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L641" t="n">
         <v>16.74</v>
@@ -32970,7 +32980,7 @@
         <v>42.70000000000024</v>
       </c>
       <c r="K642" t="n">
-        <v>19.99999999999981</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L642" t="n">
         <v>16.76</v>
@@ -33021,7 +33031,7 @@
         <v>43.10000000000025</v>
       </c>
       <c r="K643" t="n">
-        <v>36.84210526315775</v>
+        <v>63.63636363636308</v>
       </c>
       <c r="L643" t="n">
         <v>16.81</v>
@@ -33072,7 +33082,7 @@
         <v>43.10000000000025</v>
       </c>
       <c r="K644" t="n">
-        <v>44.44444444444438</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L644" t="n">
         <v>16.88</v>
@@ -33123,7 +33133,7 @@
         <v>43.20000000000025</v>
       </c>
       <c r="K645" t="n">
-        <v>33.33333333333314</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L645" t="n">
         <v>16.92</v>
@@ -33174,7 +33184,7 @@
         <v>43.20000000000025</v>
       </c>
       <c r="K646" t="n">
-        <v>33.33333333333314</v>
+        <v>74.99999999999933</v>
       </c>
       <c r="L646" t="n">
         <v>16.96</v>
@@ -33225,7 +33235,7 @@
         <v>43.20000000000025</v>
       </c>
       <c r="K647" t="n">
-        <v>33.33333333333314</v>
+        <v>71.42857142857041</v>
       </c>
       <c r="L647" t="n">
         <v>17.02</v>
@@ -33276,7 +33286,7 @@
         <v>43.30000000000025</v>
       </c>
       <c r="K648" t="n">
-        <v>36.84210526315775</v>
+        <v>71.42857142857041</v>
       </c>
       <c r="L648" t="n">
         <v>17.08</v>
@@ -33327,7 +33337,7 @@
         <v>43.50000000000026</v>
       </c>
       <c r="K649" t="n">
-        <v>19.99999999999996</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L649" t="n">
         <v>17.11</v>
@@ -33378,7 +33388,7 @@
         <v>43.60000000000026</v>
       </c>
       <c r="K650" t="n">
-        <v>14.28571428571421</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L650" t="n">
         <v>17.13</v>
@@ -33429,7 +33439,7 @@
         <v>43.70000000000026</v>
       </c>
       <c r="K651" t="n">
-        <v>14.28571428571421</v>
+        <v>20</v>
       </c>
       <c r="L651" t="n">
         <v>17.15999999999999</v>
@@ -33480,7 +33490,7 @@
         <v>43.90000000000026</v>
       </c>
       <c r="K652" t="n">
-        <v>9.090909090908989</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L652" t="n">
         <v>17.15999999999999</v>
@@ -33531,7 +33541,7 @@
         <v>44.00000000000026</v>
       </c>
       <c r="K653" t="n">
-        <v>9.090909090908989</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L653" t="n">
         <v>17.12999999999999</v>
@@ -33582,7 +33592,7 @@
         <v>44.00000000000026</v>
       </c>
       <c r="K654" t="n">
-        <v>19.99999999999972</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L654" t="n">
         <v>17.09999999999999</v>
@@ -33633,7 +33643,7 @@
         <v>44.00000000000026</v>
       </c>
       <c r="K655" t="n">
-        <v>11.11111111111096</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L655" t="n">
         <v>17.07999999999999</v>
@@ -33684,7 +33694,7 @@
         <v>44.00000000000026</v>
       </c>
       <c r="K656" t="n">
-        <v>11.11111111111096</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L656" t="n">
         <v>17.06</v>
@@ -33735,7 +33745,7 @@
         <v>44.10000000000026</v>
       </c>
       <c r="K657" t="n">
-        <v>17.64705882352907</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L657" t="n">
         <v>17.02999999999999</v>
@@ -33786,7 +33796,7 @@
         <v>44.20000000000026</v>
       </c>
       <c r="K658" t="n">
-        <v>5.882352941176496</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L658" t="n">
         <v>16.98</v>
@@ -33837,7 +33847,7 @@
         <v>44.30000000000025</v>
       </c>
       <c r="K659" t="n">
-        <v>5.882352941176311</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L659" t="n">
         <v>16.96</v>
@@ -33888,7 +33898,7 @@
         <v>44.30000000000025</v>
       </c>
       <c r="K660" t="n">
-        <v>5.882352941176311</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L660" t="n">
         <v>16.95</v>
@@ -33939,7 +33949,7 @@
         <v>44.30000000000025</v>
       </c>
       <c r="K661" t="n">
-        <v>5.882352941176311</v>
+        <v>0</v>
       </c>
       <c r="L661" t="n">
         <v>16.93</v>
@@ -33990,7 +34000,7 @@
         <v>44.40000000000025</v>
       </c>
       <c r="K662" t="n">
-        <v>-5.882352941176335</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L662" t="n">
         <v>16.92</v>
@@ -34041,7 +34051,7 @@
         <v>44.50000000000024</v>
       </c>
       <c r="K663" t="n">
-        <v>-28.5714285714289</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L663" t="n">
         <v>16.91</v>
@@ -34092,7 +34102,7 @@
         <v>44.50000000000024</v>
       </c>
       <c r="K664" t="n">
-        <v>-28.5714285714289</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L664" t="n">
         <v>16.9</v>
@@ -34143,7 +34153,7 @@
         <v>44.60000000000024</v>
       </c>
       <c r="K665" t="n">
-        <v>-14.28571428571432</v>
+        <v>0</v>
       </c>
       <c r="L665" t="n">
         <v>16.9</v>
@@ -34194,7 +34204,7 @@
         <v>44.80000000000024</v>
       </c>
       <c r="K666" t="n">
-        <v>-25.00000000000011</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L666" t="n">
         <v>16.88</v>
@@ -34245,7 +34255,7 @@
         <v>45.00000000000024</v>
       </c>
       <c r="K667" t="n">
-        <v>-11.11111111111113</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L667" t="n">
         <v>16.89</v>
@@ -34296,7 +34306,7 @@
         <v>45.20000000000024</v>
       </c>
       <c r="K668" t="n">
-        <v>-5.26315789473694</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L668" t="n">
         <v>16.93</v>
@@ -34347,7 +34357,7 @@
         <v>45.20000000000024</v>
       </c>
       <c r="K669" t="n">
-        <v>5.882352941176385</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L669" t="n">
         <v>16.96</v>
@@ -34398,7 +34408,7 @@
         <v>45.20000000000024</v>
       </c>
       <c r="K670" t="n">
-        <v>12.50000000000006</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L670" t="n">
         <v>16.98999999999999</v>
@@ -34449,7 +34459,7 @@
         <v>45.30000000000024</v>
       </c>
       <c r="K671" t="n">
-        <v>0</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L671" t="n">
         <v>17.00999999999999</v>
@@ -34500,7 +34510,7 @@
         <v>45.40000000000024</v>
       </c>
       <c r="K672" t="n">
-        <v>6.666666666666857</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L672" t="n">
         <v>17.02999999999999</v>
@@ -34551,7 +34561,7 @@
         <v>45.50000000000024</v>
       </c>
       <c r="K673" t="n">
-        <v>6.666666666666857</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L673" t="n">
         <v>17.04999999999999</v>
@@ -34602,7 +34612,7 @@
         <v>45.70000000000024</v>
       </c>
       <c r="K674" t="n">
-        <v>-5.882352941176618</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L674" t="n">
         <v>17.04999999999999</v>
@@ -34653,7 +34663,7 @@
         <v>45.70000000000024</v>
       </c>
       <c r="K675" t="n">
-        <v>-5.882352941176618</v>
+        <v>11.1111111111108</v>
       </c>
       <c r="L675" t="n">
         <v>17.03999999999999</v>
@@ -34704,7 +34714,7 @@
         <v>45.70000000000024</v>
       </c>
       <c r="K676" t="n">
-        <v>-5.882352941176618</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L676" t="n">
         <v>17.04999999999999</v>
@@ -34755,7 +34765,7 @@
         <v>45.70000000000024</v>
       </c>
       <c r="K677" t="n">
-        <v>0</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L677" t="n">
         <v>17.03999999999999</v>
@@ -34806,7 +34816,7 @@
         <v>45.80000000000024</v>
       </c>
       <c r="K678" t="n">
-        <v>0</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L678" t="n">
         <v>16.99999999999999</v>
@@ -34857,7 +34867,7 @@
         <v>45.80000000000024</v>
       </c>
       <c r="K679" t="n">
-        <v>-6.666666666666588</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L679" t="n">
         <v>16.96</v>
@@ -34908,7 +34918,7 @@
         <v>45.80000000000024</v>
       </c>
       <c r="K680" t="n">
-        <v>-6.666666666666588</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L680" t="n">
         <v>16.92</v>
@@ -34959,7 +34969,7 @@
         <v>46.10000000000024</v>
       </c>
       <c r="K681" t="n">
-        <v>11.11111111111137</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L681" t="n">
         <v>16.92</v>
@@ -35010,7 +35020,7 @@
         <v>46.40000000000023</v>
       </c>
       <c r="K682" t="n">
-        <v>0</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L682" t="n">
         <v>16.9</v>
@@ -35061,7 +35071,7 @@
         <v>46.60000000000024</v>
       </c>
       <c r="K683" t="n">
-        <v>4.761904761904842</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L683" t="n">
         <v>16.89</v>
@@ -35163,7 +35173,7 @@
         <v>46.70000000000024</v>
       </c>
       <c r="K685" t="n">
-        <v>-4.761904761904842</v>
+        <v>0</v>
       </c>
       <c r="L685" t="n">
         <v>16.89</v>
@@ -35214,7 +35224,7 @@
         <v>46.70000000000024</v>
       </c>
       <c r="K686" t="n">
-        <v>5.263157894736733</v>
+        <v>0</v>
       </c>
       <c r="L686" t="n">
         <v>16.89</v>
@@ -35265,7 +35275,7 @@
         <v>46.80000000000024</v>
       </c>
       <c r="K687" t="n">
-        <v>-11.11111111111109</v>
+        <v>0</v>
       </c>
       <c r="L687" t="n">
         <v>16.88</v>
@@ -35316,7 +35326,7 @@
         <v>46.80000000000024</v>
       </c>
       <c r="K688" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L688" t="n">
         <v>16.88</v>
@@ -35367,7 +35377,7 @@
         <v>46.90000000000023</v>
       </c>
       <c r="K689" t="n">
-        <v>-17.64705882352957</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L689" t="n">
         <v>16.89</v>
@@ -35418,7 +35428,7 @@
         <v>47.00000000000023</v>
       </c>
       <c r="K690" t="n">
-        <v>-22.22222222222235</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L690" t="n">
         <v>16.89</v>
@@ -35469,7 +35479,7 @@
         <v>47.10000000000022</v>
       </c>
       <c r="K691" t="n">
-        <v>-11.11111111111137</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L691" t="n">
         <v>16.87</v>
@@ -35571,7 +35581,7 @@
         <v>47.30000000000022</v>
       </c>
       <c r="K693" t="n">
-        <v>-11.11111111111137</v>
+        <v>0</v>
       </c>
       <c r="L693" t="n">
         <v>16.88</v>
@@ -35622,7 +35632,7 @@
         <v>47.60000000000022</v>
       </c>
       <c r="K694" t="n">
-        <v>15.78947368421075</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L694" t="n">
         <v>16.91</v>
@@ -35673,7 +35683,7 @@
         <v>47.60000000000022</v>
       </c>
       <c r="K695" t="n">
-        <v>15.78947368421075</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L695" t="n">
         <v>16.94</v>
@@ -35724,7 +35734,7 @@
         <v>47.70000000000022</v>
       </c>
       <c r="K696" t="n">
-        <v>20.00000000000032</v>
+        <v>55.55555555555652</v>
       </c>
       <c r="L696" t="n">
         <v>16.98</v>
@@ -35775,7 +35785,7 @@
         <v>47.70000000000022</v>
       </c>
       <c r="K697" t="n">
-        <v>20.00000000000032</v>
+        <v>55.55555555555652</v>
       </c>
       <c r="L697" t="n">
         <v>17.03</v>
@@ -35826,7 +35836,7 @@
         <v>47.80000000000022</v>
       </c>
       <c r="K698" t="n">
-        <v>30.0000000000001</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L698" t="n">
         <v>17.09</v>
@@ -35877,7 +35887,7 @@
         <v>47.80000000000022</v>
       </c>
       <c r="K699" t="n">
-        <v>30.0000000000001</v>
+        <v>75</v>
       </c>
       <c r="L699" t="n">
         <v>17.14</v>
@@ -35928,7 +35938,7 @@
         <v>48.10000000000022</v>
       </c>
       <c r="K700" t="n">
-        <v>13.04347826086969</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L700" t="n">
         <v>17.16999999999999</v>
@@ -35979,7 +35989,7 @@
         <v>48.20000000000022</v>
       </c>
       <c r="K701" t="n">
-        <v>4.761904761904705</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L701" t="n">
         <v>17.2</v>
@@ -36030,7 +36040,7 @@
         <v>48.20000000000022</v>
       </c>
       <c r="K702" t="n">
-        <v>22.22222222222235</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L702" t="n">
         <v>17.21999999999999</v>
@@ -36081,7 +36091,7 @@
         <v>48.40000000000022</v>
       </c>
       <c r="K703" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L703" t="n">
         <v>17.22999999999999</v>
@@ -36132,7 +36142,7 @@
         <v>48.40000000000022</v>
       </c>
       <c r="K704" t="n">
-        <v>5.882352941176618</v>
+        <v>-25</v>
       </c>
       <c r="L704" t="n">
         <v>17.20999999999999</v>
@@ -36183,7 +36193,7 @@
         <v>48.50000000000022</v>
       </c>
       <c r="K705" t="n">
-        <v>0</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L705" t="n">
         <v>17.18</v>
@@ -36234,7 +36244,7 @@
         <v>48.60000000000022</v>
       </c>
       <c r="K706" t="n">
-        <v>5.263157894736961</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L706" t="n">
         <v>17.15</v>
@@ -36285,7 +36295,7 @@
         <v>48.60000000000022</v>
       </c>
       <c r="K707" t="n">
-        <v>11.11111111111118</v>
+        <v>-50</v>
       </c>
       <c r="L707" t="n">
         <v>17.11999999999999</v>
@@ -36336,7 +36346,7 @@
         <v>48.70000000000022</v>
       </c>
       <c r="K708" t="n">
-        <v>5.263157894736773</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L708" t="n">
         <v>17.06999999999999</v>
@@ -36387,7 +36397,7 @@
         <v>48.80000000000022</v>
       </c>
       <c r="K709" t="n">
-        <v>5.26315789473694</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L709" t="n">
         <v>17.02999999999999</v>
@@ -36438,7 +36448,7 @@
         <v>49.00000000000023</v>
       </c>
       <c r="K710" t="n">
-        <v>0</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L710" t="n">
         <v>16.99999999999999</v>
@@ -36489,7 +36499,7 @@
         <v>49.00000000000023</v>
       </c>
       <c r="K711" t="n">
-        <v>-5.263157894736715</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L711" t="n">
         <v>16.96</v>
@@ -36540,7 +36550,7 @@
         <v>49.10000000000022</v>
       </c>
       <c r="K712" t="n">
-        <v>-5.263157894736921</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L712" t="n">
         <v>16.93</v>
@@ -36591,7 +36601,7 @@
         <v>49.30000000000022</v>
       </c>
       <c r="K713" t="n">
-        <v>-9.999999999999964</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L713" t="n">
         <v>16.9</v>
@@ -36642,7 +36652,7 @@
         <v>49.30000000000022</v>
       </c>
       <c r="K714" t="n">
-        <v>-29.41176470588231</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L714" t="n">
         <v>16.87</v>
@@ -36693,7 +36703,7 @@
         <v>49.40000000000023</v>
       </c>
       <c r="K715" t="n">
-        <v>-22.22222222222209</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L715" t="n">
         <v>16.86</v>
@@ -36744,7 +36754,7 @@
         <v>49.40000000000023</v>
       </c>
       <c r="K716" t="n">
-        <v>-29.41176470588231</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L716" t="n">
         <v>16.84</v>
@@ -36795,7 +36805,7 @@
         <v>49.40000000000023</v>
       </c>
       <c r="K717" t="n">
-        <v>-29.41176470588231</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L717" t="n">
         <v>16.82</v>
@@ -36846,7 +36856,7 @@
         <v>49.50000000000023</v>
       </c>
       <c r="K718" t="n">
-        <v>-29.41176470588231</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L718" t="n">
         <v>16.82</v>
@@ -36897,7 +36907,7 @@
         <v>49.60000000000022</v>
       </c>
       <c r="K719" t="n">
-        <v>-33.33333333333326</v>
+        <v>0</v>
       </c>
       <c r="L719" t="n">
         <v>16.8</v>
@@ -36948,7 +36958,7 @@
         <v>49.60000000000022</v>
       </c>
       <c r="K720" t="n">
-        <v>-20.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L720" t="n">
         <v>16.8</v>
@@ -36999,7 +37009,7 @@
         <v>49.60000000000022</v>
       </c>
       <c r="K721" t="n">
-        <v>-28.57142857142835</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L721" t="n">
         <v>16.8</v>
@@ -37050,7 +37060,7 @@
         <v>49.60000000000022</v>
       </c>
       <c r="K722" t="n">
-        <v>-28.57142857142835</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L722" t="n">
         <v>16.79</v>
@@ -37101,7 +37111,7 @@
         <v>49.60000000000022</v>
       </c>
       <c r="K723" t="n">
-        <v>-16.66666666666657</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L723" t="n">
         <v>16.8</v>
@@ -37152,7 +37162,7 @@
         <v>49.70000000000022</v>
       </c>
       <c r="K724" t="n">
-        <v>-23.07692307692306</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L724" t="n">
         <v>16.8</v>
@@ -37203,7 +37213,7 @@
         <v>49.70000000000022</v>
       </c>
       <c r="K725" t="n">
-        <v>-16.66666666666657</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L725" t="n">
         <v>16.79</v>
@@ -37254,7 +37264,7 @@
         <v>49.70000000000022</v>
       </c>
       <c r="K726" t="n">
-        <v>-27.27272727272731</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L726" t="n">
         <v>16.78</v>
@@ -37305,7 +37315,7 @@
         <v>49.80000000000022</v>
       </c>
       <c r="K727" t="n">
-        <v>-16.66666666666657</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L727" t="n">
         <v>16.78</v>
@@ -37356,7 +37366,7 @@
         <v>49.90000000000022</v>
       </c>
       <c r="K728" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L728" t="n">
         <v>16.78</v>
@@ -37407,7 +37417,7 @@
         <v>49.90000000000022</v>
       </c>
       <c r="K729" t="n">
-        <v>-9.090909090909268</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L729" t="n">
         <v>16.79</v>
@@ -37509,7 +37519,7 @@
         <v>50.10000000000021</v>
       </c>
       <c r="K731" t="n">
-        <v>9.090909090909062</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L731" t="n">
         <v>16.8</v>
@@ -37560,7 +37570,7 @@
         <v>50.2000000000002</v>
       </c>
       <c r="K732" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L732" t="n">
         <v>16.8</v>
@@ -37611,7 +37621,7 @@
         <v>50.2000000000002</v>
       </c>
       <c r="K733" t="n">
-        <v>11.11111111111155</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L733" t="n">
         <v>16.8</v>
@@ -37662,7 +37672,7 @@
         <v>50.2000000000002</v>
       </c>
       <c r="K734" t="n">
-        <v>11.11111111111155</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L734" t="n">
         <v>16.81</v>
@@ -37713,7 +37723,7 @@
         <v>50.3000000000002</v>
       </c>
       <c r="K735" t="n">
-        <v>-11.11111111111155</v>
+        <v>0</v>
       </c>
       <c r="L735" t="n">
         <v>16.81</v>
@@ -37815,7 +37825,7 @@
         <v>50.60000000000021</v>
       </c>
       <c r="K737" t="n">
-        <v>16.66666666666686</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L737" t="n">
         <v>16.84</v>
@@ -37866,7 +37876,7 @@
         <v>50.60000000000021</v>
       </c>
       <c r="K738" t="n">
-        <v>9.090909090909385</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L738" t="n">
         <v>16.85</v>

--- a/BackTest/2019-11-01 BackTest DVP.xlsx
+++ b/BackTest/2019-11-01 BackTest DVP.xlsx
@@ -6086,13 +6086,17 @@
         <v>15.51166666666666</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
@@ -6121,14 +6125,22 @@
         <v>15.50333333333333</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6156,14 +6168,22 @@
         <v>15.49666666666666</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K165" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6191,14 +6211,22 @@
         <v>15.48666666666667</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K166" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6226,14 +6254,22 @@
         <v>15.47833333333333</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K167" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6261,14 +6297,22 @@
         <v>15.47333333333333</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K168" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +6346,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6331,14 +6381,22 @@
         <v>15.455</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K170" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6372,8 +6430,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6407,8 +6471,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6442,8 +6512,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6477,8 +6553,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +6594,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +6635,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +6676,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6717,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +6758,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6687,8 +6799,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +6840,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6881,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +6922,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6827,8 +6963,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +7004,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +7045,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +7086,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7127,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +7168,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +7209,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7250,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7107,8 +7291,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7142,8 +7332,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7177,8 +7373,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7212,8 +7414,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7247,8 +7455,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7282,8 +7496,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7317,8 +7537,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7352,8 +7578,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7619,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7422,8 +7660,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7457,8 +7701,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7492,8 +7742,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +7783,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7562,8 +7824,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7597,8 +7865,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7632,8 +7906,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +7947,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +7988,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +8029,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +8070,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7807,8 +8111,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7842,8 +8152,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7877,8 +8193,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8234,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8275,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7982,8 +8316,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8017,8 +8357,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8052,8 +8398,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8087,8 +8439,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8122,8 +8480,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8157,8 +8521,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8192,8 +8562,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8227,8 +8603,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8262,8 +8644,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8297,8 +8685,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8332,8 +8726,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8367,8 +8767,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8396,18 +8802,18 @@
         <v>15.11166666666668</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M229" t="n">
@@ -8437,15 +8843,15 @@
         <v>15.10500000000001</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8486,7 +8892,9 @@
       <c r="J231" t="n">
         <v>14.8</v>
       </c>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8519,15 +8927,15 @@
         <v>15.08666666666668</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8560,15 +8968,15 @@
         <v>15.07666666666668</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8601,15 +9009,15 @@
         <v>15.06666666666668</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8642,15 +9050,15 @@
         <v>15.06000000000001</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8683,15 +9091,15 @@
         <v>15.05166666666668</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8724,15 +9132,15 @@
         <v>15.03833333333335</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8765,15 +9173,15 @@
         <v>15.02666666666668</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8806,15 +9214,15 @@
         <v>15.01666666666668</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8847,15 +9255,15 @@
         <v>15.00666666666668</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8888,15 +9296,15 @@
         <v>14.99666666666668</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8929,15 +9337,15 @@
         <v>14.98666666666668</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8970,15 +9378,15 @@
         <v>14.98166666666668</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9011,15 +9419,15 @@
         <v>14.97500000000002</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9052,15 +9460,15 @@
         <v>14.96666666666668</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9093,15 +9501,15 @@
         <v>14.95500000000002</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9134,15 +9542,15 @@
         <v>14.94500000000002</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9175,15 +9583,15 @@
         <v>14.93500000000001</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9216,15 +9624,15 @@
         <v>14.92666666666668</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9257,15 +9665,15 @@
         <v>14.92000000000002</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9298,15 +9706,15 @@
         <v>14.91333333333335</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9339,15 +9747,15 @@
         <v>14.91000000000001</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9380,15 +9788,15 @@
         <v>14.90666666666668</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9421,15 +9829,15 @@
         <v>14.90333333333334</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9462,15 +9870,15 @@
         <v>14.89500000000001</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9503,15 +9911,15 @@
         <v>14.88833333333334</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9544,15 +9952,15 @@
         <v>14.88000000000001</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9585,15 +9993,15 @@
         <v>14.87333333333334</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9626,15 +10034,15 @@
         <v>14.86666666666667</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9667,15 +10075,15 @@
         <v>14.85833333333334</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9708,15 +10116,15 @@
         <v>14.85000000000001</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9749,15 +10157,15 @@
         <v>14.84166666666667</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9790,15 +10198,15 @@
         <v>14.83500000000001</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9831,15 +10239,15 @@
         <v>14.83333333333334</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9872,15 +10280,15 @@
         <v>14.82833333333334</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>15</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9913,15 +10321,15 @@
         <v>14.82500000000001</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>15</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9954,15 +10362,15 @@
         <v>14.82166666666667</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>15</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9995,15 +10403,15 @@
         <v>14.82</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>15</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10036,15 +10444,15 @@
         <v>14.81833333333334</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>15</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10077,15 +10485,15 @@
         <v>14.82</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10118,15 +10526,15 @@
         <v>14.82166666666667</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10165,7 +10573,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10204,7 +10614,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10243,7 +10655,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10282,7 +10696,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10321,7 +10737,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10360,7 +10778,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10399,7 +10819,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10438,7 +10860,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10477,7 +10901,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10516,7 +10942,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10555,7 +10983,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10594,7 +11024,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10633,7 +11065,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10672,7 +11106,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10711,7 +11147,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10750,7 +11188,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10789,7 +11229,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10828,7 +11270,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10867,7 +11311,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10906,7 +11352,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10945,7 +11393,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10984,7 +11434,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11023,7 +11475,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11062,7 +11516,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11101,7 +11557,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11140,7 +11598,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11179,7 +11639,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11218,7 +11680,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11257,7 +11721,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11296,7 +11762,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11335,7 +11803,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11374,7 +11844,9 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11413,7 +11885,9 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11452,7 +11926,9 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11491,7 +11967,9 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11530,7 +12008,9 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11569,7 +12049,9 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11608,7 +12090,9 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11647,7 +12131,9 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11686,7 +12172,9 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11725,7 +12213,9 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11764,7 +12254,9 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11803,7 +12295,9 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11842,7 +12336,9 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11881,7 +12377,9 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11920,7 +12418,9 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11959,7 +12459,9 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11998,7 +12500,9 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12037,7 +12541,9 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12076,7 +12582,9 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12115,7 +12623,9 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12154,7 +12664,9 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12193,7 +12705,9 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12232,7 +12746,9 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12271,7 +12787,9 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12310,7 +12828,9 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12349,7 +12869,9 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12388,7 +12910,9 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12427,7 +12951,9 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12466,7 +12992,9 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12505,7 +13033,9 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12544,7 +13074,9 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12583,7 +13115,9 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12622,7 +13156,9 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12661,7 +13197,9 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12700,7 +13238,9 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12739,7 +13279,9 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12778,7 +13320,9 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12817,7 +13361,9 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12856,7 +13402,9 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12895,7 +13443,9 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12934,7 +13484,9 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12973,7 +13525,9 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13012,7 +13566,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13051,7 +13607,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13090,7 +13648,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13129,7 +13689,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13168,7 +13730,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13207,7 +13771,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13246,7 +13812,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13285,7 +13853,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13324,7 +13894,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13363,7 +13935,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13402,7 +13976,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13441,7 +14017,9 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13480,7 +14058,9 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13519,7 +14099,9 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13558,7 +14140,9 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13597,7 +14181,9 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13636,7 +14222,9 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13675,7 +14263,9 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13714,7 +14304,9 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13753,7 +14345,9 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13792,7 +14386,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13831,7 +14427,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13870,7 +14468,9 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13909,7 +14509,9 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13948,7 +14550,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13987,7 +14591,9 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14026,7 +14632,9 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14065,7 +14673,9 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14104,7 +14714,9 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14143,7 +14755,9 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14182,7 +14796,9 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14221,7 +14837,9 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14260,7 +14878,9 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14299,7 +14919,9 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14338,7 +14960,9 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14377,7 +15001,9 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14416,7 +15042,9 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14455,7 +15083,9 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14494,7 +15124,9 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14533,7 +15165,9 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14572,7 +15206,9 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14611,7 +15247,9 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14650,7 +15288,9 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14689,7 +15329,9 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14728,7 +15370,9 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14767,7 +15411,9 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14806,7 +15452,9 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14845,7 +15493,9 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14884,7 +15534,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14923,7 +15575,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14962,7 +15616,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15001,7 +15657,9 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15040,7 +15698,9 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15079,7 +15739,9 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15118,7 +15780,9 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15157,7 +15821,9 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15196,7 +15862,9 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15235,7 +15903,9 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15274,7 +15944,9 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15313,7 +15985,9 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15352,7 +16026,9 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15391,7 +16067,9 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15430,7 +16108,9 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15469,7 +16149,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15508,7 +16190,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15547,7 +16231,9 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15586,7 +16272,9 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15625,7 +16313,9 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15664,7 +16354,9 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15703,7 +16395,9 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15742,7 +16436,9 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15781,7 +16477,9 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15820,7 +16518,9 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15859,7 +16559,9 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15898,7 +16600,9 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15937,7 +16641,9 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15976,7 +16682,9 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16015,7 +16723,9 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16054,7 +16764,9 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16093,7 +16805,9 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16132,7 +16846,9 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16171,7 +16887,9 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16210,7 +16928,9 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16249,7 +16969,9 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16288,7 +17010,9 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16327,7 +17051,9 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16366,7 +17092,9 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16405,7 +17133,9 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16444,7 +17174,9 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16483,7 +17215,9 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16522,7 +17256,9 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16561,7 +17297,9 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16600,7 +17338,9 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16639,7 +17379,9 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16678,7 +17420,9 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16717,7 +17461,9 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16756,7 +17502,9 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16795,7 +17543,9 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16834,7 +17584,9 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16873,7 +17625,9 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16912,7 +17666,9 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16951,7 +17707,9 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16990,7 +17748,9 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17029,7 +17789,9 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17068,7 +17830,9 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17107,7 +17871,9 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17146,7 +17912,9 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17185,7 +17953,9 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17224,7 +17994,9 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17263,7 +18035,9 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17302,7 +18076,9 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17341,7 +18117,9 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17380,7 +18158,9 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17419,7 +18199,9 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17458,7 +18240,9 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17497,7 +18281,9 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17536,7 +18322,9 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17575,7 +18363,9 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17614,7 +18404,9 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17653,7 +18445,9 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17692,7 +18486,9 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17731,7 +18527,9 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17770,7 +18568,9 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17809,7 +18609,9 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17848,7 +18650,9 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17887,7 +18691,9 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17926,7 +18732,9 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17965,7 +18773,9 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18004,7 +18814,9 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18043,7 +18855,9 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18082,7 +18896,9 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18121,7 +18937,9 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18160,7 +18978,9 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18199,7 +19019,9 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18238,7 +19060,9 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18277,7 +19101,9 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18316,7 +19142,9 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18355,7 +19183,9 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18394,7 +19224,9 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18433,7 +19265,9 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18472,7 +19306,9 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18511,7 +19347,9 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18550,7 +19388,9 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18589,7 +19429,9 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18628,7 +19470,9 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18667,7 +19511,9 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18706,7 +19552,9 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18745,7 +19593,9 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18784,7 +19634,9 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18823,7 +19675,9 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18862,7 +19716,9 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18901,7 +19757,9 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18940,7 +19798,9 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18979,7 +19839,9 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19018,7 +19880,9 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19057,7 +19921,9 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19096,7 +19962,9 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19135,7 +20003,9 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19174,7 +20044,9 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19213,7 +20085,9 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19252,7 +20126,9 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19291,7 +20167,9 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19330,7 +20208,9 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19369,7 +20249,9 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19408,7 +20290,9 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19447,7 +20331,9 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19486,7 +20372,9 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19525,7 +20413,9 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19564,7 +20454,9 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19603,7 +20495,9 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19642,7 +20536,9 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19681,7 +20577,9 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19720,7 +20618,9 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19759,7 +20659,9 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19798,7 +20700,9 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19837,7 +20741,9 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19876,7 +20782,9 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19915,7 +20823,9 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19954,7 +20864,9 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19990,16 +20902,20 @@
         <v>0</v>
       </c>
       <c r="I524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M524" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M524" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -20027,11 +20943,17 @@
         <v>0</v>
       </c>
       <c r="I525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20065,8 +20987,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20100,8 +21028,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20135,8 +21069,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20170,8 +21110,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20205,8 +21151,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20240,8 +21192,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20275,8 +21233,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20310,8 +21274,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20345,8 +21315,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20380,8 +21356,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20415,8 +21397,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20450,8 +21438,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20485,8 +21479,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20520,8 +21520,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20555,8 +21561,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20590,8 +21602,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20625,8 +21643,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20660,8 +21684,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20695,8 +21725,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20730,8 +21766,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20765,8 +21807,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20800,8 +21848,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20835,8 +21889,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20870,8 +21930,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20905,8 +21971,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20940,8 +22012,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20975,8 +22053,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21010,8 +22094,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21045,8 +22135,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21080,8 +22176,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21115,8 +22217,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21150,8 +22258,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21185,8 +22299,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21220,8 +22340,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21255,8 +22381,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21290,8 +22422,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21325,8 +22463,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21360,8 +22504,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21395,8 +22545,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21430,8 +22586,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21465,8 +22627,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21500,8 +22668,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21535,8 +22709,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21570,8 +22750,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21605,8 +22791,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21640,8 +22832,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21675,8 +22873,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21710,8 +22914,14 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21745,8 +22955,14 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21780,8 +22996,14 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21815,8 +23037,14 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21850,8 +23078,14 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21885,8 +23119,14 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21920,8 +23160,14 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21955,8 +23201,14 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21990,8 +23242,14 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22025,8 +23283,14 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22060,8 +23324,14 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22095,8 +23365,14 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22130,8 +23406,14 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22165,8 +23447,14 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22200,8 +23488,14 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22235,8 +23529,14 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22270,8 +23570,14 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22305,8 +23611,14 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22340,8 +23652,14 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="K591" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22375,8 +23693,14 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="K592" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22410,8 +23734,14 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="K593" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22445,8 +23775,14 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="K594" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -22480,8 +23816,14 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="K595" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -22515,8 +23857,14 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22550,8 +23898,14 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -22585,8 +23939,14 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22620,8 +23980,14 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22655,8 +24021,14 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22690,8 +24062,14 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22725,8 +24103,14 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="K602" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22760,8 +24144,14 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22795,8 +24185,14 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="K604" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22830,8 +24226,14 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="K605" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22865,8 +24267,14 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="K606" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22900,8 +24308,14 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="K607" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22935,8 +24349,14 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="K608" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22970,8 +24390,14 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="K609" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -23005,8 +24431,14 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="K610" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -23040,8 +24472,14 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="K611" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -23075,8 +24513,14 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="K612" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -23110,8 +24554,14 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="K613" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -23145,8 +24595,14 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="K614" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -23180,8 +24636,14 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="K615" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -23215,8 +24677,14 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="K616" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -23250,8 +24718,14 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="K617" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23285,8 +24759,14 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="K618" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23320,8 +24800,14 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="K619" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23355,8 +24841,14 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="K620" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23390,8 +24882,14 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="K621" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23425,8 +24923,14 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="K622" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23460,8 +24964,14 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="K623" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23495,8 +25005,14 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="K624" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23527,11 +25043,17 @@
         <v>0</v>
       </c>
       <c r="I625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="K625" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23562,11 +25084,17 @@
         <v>0</v>
       </c>
       <c r="I626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="K626" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -23597,11 +25125,17 @@
         <v>0</v>
       </c>
       <c r="I627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="K627" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23632,11 +25166,17 @@
         <v>0</v>
       </c>
       <c r="I628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="K628" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23667,11 +25207,17 @@
         <v>0</v>
       </c>
       <c r="I629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="K629" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23705,8 +25251,14 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="K630" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23740,8 +25292,14 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="K631" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23772,11 +25330,17 @@
         <v>0</v>
       </c>
       <c r="I632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="K632" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23807,11 +25371,17 @@
         <v>0</v>
       </c>
       <c r="I633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="K633" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23842,11 +25412,17 @@
         <v>0</v>
       </c>
       <c r="I634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="K634" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23880,8 +25456,14 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="K635" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23915,8 +25497,14 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="K636" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23950,8 +25538,14 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="K637" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23985,8 +25579,14 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="K638" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -24020,8 +25620,14 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="K639" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -24055,8 +25661,14 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="K640" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -24090,8 +25702,14 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="K641" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -24125,8 +25743,14 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="K642" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -24160,8 +25784,14 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="K643" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -24195,8 +25825,14 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="K644" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -24230,8 +25866,14 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="K645" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -24262,13 +25904,19 @@
         <v>0</v>
       </c>
       <c r="I646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="K646" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M646" t="n">
-        <v>1</v>
+        <v>1.134072847682119</v>
       </c>
     </row>
     <row r="647">
@@ -24297,7 +25945,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest DVP.xlsx
+++ b/BackTest/2019-11-01 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1870,7 +1870,7 @@
         <v>-713629.0746701728</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-713629.0746701728</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-982654.4088701728</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-982654.4088701728</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-848532.6454701729</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-848522.5203701729</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-941147.520270173</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-941125.941770173</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-941075.941770173</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-941065.941770173</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-941065.941770173</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-941330.5152701731</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-941330.5152701731</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-938959.163070173</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-938959.163070173</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-938949.163070173</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-938973.818170173</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-938973.818170173</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-938973.818170173</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-938962.818170173</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-739130.2872928145</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-738350.3386928145</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-797750.3386928145</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-797739.3386928145</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-987800.1965928145</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-987800.1965928145</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-983958.8884928145</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-1005958.888492814</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-1005958.888492814</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1005439.574092814</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1005439.574092814</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1005439.574092814</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1172221.073492815</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-800685.1345928145</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-753286.9314928144</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-753286.9314928144</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-814466.3360928145</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-350460.0469313238</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-350460.0469313238</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-353992.7031313238</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-397368.7040313238</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-320386.2557313238</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-320375.2557313238</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-343940.1199313238</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-437802.2245313238</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-431058.7870313238</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-701325.3532313239</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-701325.3532313239</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-771981.7387313239</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-792675.4671313239</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-777881.0831313239</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-781034.3616313239</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-780856.782531324</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-783850.8710313239</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-832192.247231324</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-982741.6354313239</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-828997.042331324</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-659087.096731324</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-689905.502231324</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-669905.502231324</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-669905.502231324</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-669905.502231324</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-669905.502231324</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-484101.075431324</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-344602.3185313239</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-317420.6833313239</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-317420.6833313239</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-317420.6833313239</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-317420.6833313239</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-317420.6833313239</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-317420.6833313239</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-317420.6833313239</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-324230.7552313239</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-324230.7552313239</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-324230.7552313239</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-324230.7552313239</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-728349.8704313239</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-693190.1236313239</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1060572.276731324</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1330783.176231324</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1330783.176231324</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1870385.842231324</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1199450.626731324</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1321770.838031324</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1235015.805831324</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2108881.813631324</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2111126.996431324</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-2111004.996431324</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-2951175.620031325</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-3114027.942931325</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9757,10 +9757,14 @@
         <v>-6730101.740333338</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J284" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
@@ -9793,8 +9797,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,15 +9833,19 @@
         <v>-6686715.475733338</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>15</v>
       </c>
       <c r="J286" t="n">
-        <v>15</v>
-      </c>
-      <c r="K286" t="inlineStr"/>
+        <v>14.9</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9864,11 +9878,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L287" t="n">
@@ -9903,11 +9917,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L288" t="n">
@@ -9942,7 +9956,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -9981,7 +9995,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10020,7 +10034,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10059,7 +10073,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10098,7 +10112,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10137,7 +10151,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10176,7 +10190,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10215,7 +10229,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10254,7 +10268,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10293,7 +10307,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10332,7 +10346,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10367,11 +10381,13 @@
         <v>-7082585.098933339</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J300" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10406,11 +10422,13 @@
         <v>-7083339.898533339</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J301" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10445,11 +10463,13 @@
         <v>-7038485.746333338</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J302" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10484,11 +10504,13 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J303" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10523,11 +10545,13 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J304" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10562,11 +10586,13 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J305" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10601,13 +10627,13 @@
         <v>-7300694.454033338</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>14.7</v>
       </c>
       <c r="J306" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10642,13 +10668,13 @@
         <v>-7300684.454033338</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>14.6</v>
       </c>
       <c r="J307" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10683,13 +10709,13 @@
         <v>-7300684.454033338</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>14.8</v>
       </c>
       <c r="J308" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10724,13 +10750,11 @@
         <v>-7175782.547906311</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10765,13 +10789,13 @@
         <v>-7176099.185506311</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>14.9</v>
       </c>
       <c r="J310" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10806,11 +10830,13 @@
         <v>-7135359.033606311</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J311" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10845,11 +10871,13 @@
         <v>-7135359.033606311</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J312" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10888,7 +10916,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -10927,7 +10955,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -10966,7 +10994,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11005,7 +11033,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11044,7 +11072,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11083,7 +11111,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11122,7 +11150,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11161,7 +11189,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11200,7 +11228,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11235,13 +11263,11 @@
         <v>-7634825.603906311</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11276,13 +11302,11 @@
         <v>-7447052.597906311</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11317,13 +11341,11 @@
         <v>-7447052.597906311</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11358,13 +11380,11 @@
         <v>-7447052.597906311</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11403,7 +11423,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11442,7 +11462,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11481,7 +11501,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11520,7 +11540,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11559,7 +11579,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11598,7 +11618,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11637,7 +11657,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11676,7 +11696,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11715,7 +11735,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11754,7 +11774,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11793,7 +11813,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11832,7 +11852,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -11871,7 +11891,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -11910,7 +11930,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -11949,7 +11969,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -11988,7 +12008,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12027,7 +12047,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12066,7 +12086,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12105,7 +12125,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12144,7 +12164,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12183,7 +12203,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12222,7 +12242,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12261,7 +12281,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12300,7 +12320,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12339,7 +12359,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12378,7 +12398,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12417,7 +12437,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12456,7 +12476,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12495,7 +12515,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12534,7 +12554,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12573,7 +12593,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12612,7 +12632,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12651,7 +12671,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12690,7 +12710,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12729,7 +12749,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12768,7 +12788,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12807,7 +12827,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12846,7 +12866,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12885,7 +12905,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12924,7 +12944,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12963,7 +12983,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13002,7 +13022,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13041,7 +13061,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13080,7 +13100,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13119,7 +13139,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13158,7 +13178,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13197,7 +13217,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13236,7 +13256,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13275,7 +13295,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13314,7 +13334,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13353,7 +13373,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13392,7 +13412,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13431,7 +13451,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13470,7 +13490,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13509,7 +13529,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13548,7 +13568,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13587,7 +13607,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13626,7 +13646,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13665,7 +13685,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13704,7 +13724,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13743,7 +13763,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13782,7 +13802,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13821,7 +13841,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13860,7 +13880,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13899,7 +13919,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13938,7 +13958,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13977,7 +13997,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14016,7 +14036,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14055,7 +14075,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14094,7 +14114,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14129,11 +14149,11 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14172,7 +14192,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14211,7 +14231,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14250,7 +14270,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14289,7 +14309,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14328,7 +14348,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14367,7 +14387,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14406,7 +14426,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14445,7 +14465,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14484,7 +14504,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14523,7 +14543,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14562,7 +14582,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14601,7 +14621,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14640,7 +14660,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14679,7 +14699,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14718,7 +14738,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14757,7 +14777,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14796,7 +14816,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14835,7 +14855,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14874,7 +14894,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14913,7 +14933,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14952,7 +14972,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14991,7 +15011,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15030,7 +15050,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15069,7 +15089,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15108,7 +15128,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15147,7 +15167,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15186,7 +15206,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15225,7 +15245,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15264,7 +15284,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15303,7 +15323,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15342,7 +15362,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15381,7 +15401,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15420,7 +15440,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15459,7 +15479,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15498,7 +15518,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15537,7 +15557,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15576,7 +15596,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15615,7 +15635,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15654,7 +15674,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15693,7 +15713,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15732,7 +15752,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15771,7 +15791,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15810,7 +15830,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15849,7 +15869,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15888,7 +15908,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15927,7 +15947,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15966,7 +15986,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16005,7 +16025,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16044,7 +16064,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16083,7 +16103,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16122,7 +16142,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16161,7 +16181,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16200,7 +16220,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16239,7 +16259,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16278,7 +16298,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16317,7 +16337,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16356,7 +16376,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16395,7 +16415,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16434,7 +16454,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16473,7 +16493,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16512,7 +16532,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16551,7 +16571,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16590,7 +16610,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16629,7 +16649,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16668,7 +16688,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16707,7 +16727,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16746,7 +16766,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16785,7 +16805,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16824,7 +16844,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16863,7 +16883,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16902,7 +16922,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16941,7 +16961,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16980,7 +17000,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17019,7 +17039,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17058,7 +17078,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17097,7 +17117,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17136,7 +17156,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17175,7 +17195,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17214,7 +17234,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17253,7 +17273,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17292,7 +17312,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17331,7 +17351,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17370,7 +17390,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17409,7 +17429,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17448,7 +17468,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17487,7 +17507,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17526,7 +17546,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17565,7 +17585,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17604,7 +17624,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17643,7 +17663,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17682,7 +17702,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17721,7 +17741,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17760,7 +17780,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17799,7 +17819,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17838,7 +17858,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17877,7 +17897,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17916,7 +17936,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17955,7 +17975,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17994,7 +18014,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18033,7 +18053,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18072,7 +18092,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18111,7 +18131,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18150,7 +18170,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18189,7 +18209,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18228,7 +18248,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18267,7 +18287,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18306,7 +18326,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -18345,7 +18365,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -18384,7 +18404,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -18423,7 +18443,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -18462,7 +18482,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -18501,7 +18521,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18540,7 +18560,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -18579,7 +18599,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -18618,7 +18638,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -18657,7 +18677,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -18696,7 +18716,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -18735,7 +18755,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -18774,7 +18794,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -18813,7 +18833,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18852,7 +18872,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18891,7 +18911,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18930,7 +18950,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18969,7 +18989,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19008,7 +19028,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19047,7 +19067,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19086,7 +19106,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19125,7 +19145,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19164,7 +19184,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19203,7 +19223,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -19242,7 +19262,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -19281,7 +19301,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -19320,7 +19340,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -19359,7 +19379,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -19398,7 +19418,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -19437,7 +19457,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -19476,7 +19496,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -19515,7 +19535,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -19554,7 +19574,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -19593,7 +19613,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -19632,7 +19652,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -19671,7 +19691,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -19710,7 +19730,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -19749,7 +19769,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -19788,7 +19808,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -19827,7 +19847,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19866,7 +19886,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19905,7 +19925,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -19944,7 +19964,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -19983,7 +20003,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -20022,7 +20042,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -20061,7 +20081,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -20100,7 +20120,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -20139,7 +20159,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -20178,7 +20198,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -20217,7 +20237,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -20256,7 +20276,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -20291,23 +20311,21 @@
         <v>-6803675.022138277</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L554" t="n">
-        <v>1.068333333333334</v>
-      </c>
-      <c r="M554" t="n">
-        <v>1.102739726027397</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -20335,8 +20353,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20368,8 +20392,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20401,8 +20431,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20434,8 +20470,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20467,8 +20509,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20500,8 +20548,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20533,8 +20587,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20566,8 +20626,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20599,8 +20665,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20632,8 +20704,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20665,8 +20743,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20698,8 +20782,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20731,8 +20821,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20764,8 +20860,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20797,8 +20899,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20830,8 +20938,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20863,8 +20977,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20896,8 +21016,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20929,8 +21055,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20962,8 +21094,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20995,8 +21133,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21028,8 +21172,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21061,8 +21211,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21094,8 +21250,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21127,8 +21289,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21160,8 +21328,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21193,8 +21367,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21226,8 +21406,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21259,8 +21445,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21292,8 +21484,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21325,8 +21523,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21358,8 +21562,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21391,8 +21601,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21424,8 +21640,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21457,8 +21679,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21490,8 +21718,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21523,8 +21757,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21556,8 +21796,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21589,8 +21835,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21619,11 +21871,17 @@
         <v>-7861017.733723461</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21652,11 +21910,17 @@
         <v>-8206850.44392346</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21685,11 +21949,17 @@
         <v>-7934333.482271868</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21718,11 +21988,17 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21751,11 +22027,17 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21784,11 +22066,17 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21817,11 +22105,17 @@
         <v>-7654698.712923461</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21850,11 +22144,17 @@
         <v>-7704361.712923461</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21883,11 +22183,17 @@
         <v>-7704361.712923461</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21916,11 +22222,17 @@
         <v>-7477411.727860567</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21949,11 +22261,17 @@
         <v>-7800086.884960568</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21982,11 +22300,17 @@
         <v>-7671253.884960568</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22015,11 +22339,17 @@
         <v>-7671308.287460567</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22048,11 +22378,17 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22081,11 +22417,17 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22114,11 +22456,17 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22147,11 +22495,17 @@
         <v>-6739894.290560568</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22180,11 +22534,17 @@
         <v>-7301746.984060568</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22216,8 +22576,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22249,8 +22615,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22279,11 +22651,17 @@
         <v>-7301736.984060568</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22315,8 +22693,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22348,8 +22732,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22381,8 +22771,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22414,8 +22810,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22447,8 +22849,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22480,8 +22888,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22513,8 +22927,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22543,11 +22963,17 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22579,8 +23005,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22612,8 +23044,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22642,11 +23080,17 @@
         <v>-7362330.144360567</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22675,11 +23119,17 @@
         <v>-7362437.019360567</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22708,11 +23158,17 @@
         <v>-7362437.019360567</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22744,8 +23200,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22774,11 +23236,17 @@
         <v>-7391155.276860568</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22807,11 +23275,17 @@
         <v>-7391155.276860568</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22840,11 +23314,17 @@
         <v>-7281006.519260568</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22873,11 +23353,17 @@
         <v>-7281126.753660568</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22906,11 +23392,17 @@
         <v>-7378061.448960568</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22939,11 +23431,17 @@
         <v>-7378061.448960568</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22972,11 +23470,17 @@
         <v>-7191885.226360568</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23005,11 +23509,17 @@
         <v>-7189260.630160568</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23038,11 +23548,17 @@
         <v>-7189275.659460568</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23071,11 +23587,17 @@
         <v>-7187807.569460568</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23104,11 +23626,17 @@
         <v>-7291177.825060568</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23140,8 +23668,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23173,8 +23707,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23206,8 +23746,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23239,8 +23785,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23272,8 +23824,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23305,8 +23863,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23338,8 +23902,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23371,8 +23941,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23404,8 +23980,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23437,8 +24019,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23470,8 +24058,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23503,8 +24097,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23536,8 +24136,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23569,8 +24175,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23602,8 +24214,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23635,8 +24253,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23668,8 +24292,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23701,8 +24331,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23734,8 +24370,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23767,8 +24409,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23800,8 +24448,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23833,8 +24487,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23866,8 +24526,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23899,8 +24565,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23932,8 +24604,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23965,8 +24643,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23998,8 +24682,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24031,8 +24721,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24064,8 +24760,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24097,8 +24799,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24130,8 +24838,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24163,8 +24877,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24196,8 +24916,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24229,8 +24955,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24262,8 +24994,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24295,8 +25033,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24328,8 +25072,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24361,8 +25111,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24394,8 +25150,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24427,8 +25189,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24460,8 +25228,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24493,8 +25267,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24526,8 +25306,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24559,8 +25345,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24592,8 +25384,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24625,8 +25423,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24658,8 +25462,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24691,8 +25501,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24724,8 +25540,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24757,8 +25579,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24790,8 +25618,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24823,8 +25657,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24856,8 +25696,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24889,8 +25735,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24922,8 +25774,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24952,11 +25810,17 @@
         <v>-5607586.488542606</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24985,11 +25849,17 @@
         <v>-5621115.323642606</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25021,8 +25891,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25051,11 +25927,17 @@
         <v>-5151801.148142606</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25087,8 +25969,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25120,8 +26008,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25153,8 +26047,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25186,8 +26086,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25219,8 +26125,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25249,11 +26161,17 @@
         <v>-4661147.917082842</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25282,11 +26200,17 @@
         <v>-4661147.917082842</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25315,11 +26239,17 @@
         <v>-4661147.917082842</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25348,11 +26278,17 @@
         <v>-4473844.916330819</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25381,11 +26317,17 @@
         <v>-4736280.972630819</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25414,11 +26356,17 @@
         <v>-5174189.04027268</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25450,8 +26398,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25483,8 +26437,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25516,8 +26476,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25546,11 +26512,17 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25579,11 +26551,17 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25612,11 +26590,17 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25648,8 +26632,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25681,8 +26671,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25714,8 +26710,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25747,8 +26749,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25780,8 +26788,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25810,11 +26824,17 @@
         <v>-5486918.88577268</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25846,8 +26866,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25876,11 +26902,17 @@
         <v>-5486363.88577268</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25912,8 +26944,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25945,8 +26983,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25978,8 +27022,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26011,8 +27061,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26041,15 +27097,23 @@
         <v>-5130590.901072679</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
+        <v>1.149362416107383</v>
+      </c>
+      <c r="M728" t="n">
+        <v>1.102739726027397</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
@@ -26074,7 +27138,7 @@
         <v>-5130590.901072679</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26107,7 +27171,7 @@
         <v>-5138174.175872679</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26140,7 +27204,7 @@
         <v>-5269400.178972679</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26173,7 +27237,7 @@
         <v>-5240091.178972679</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26206,7 +27270,7 @@
         <v>-5329176.621872679</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26239,7 +27303,7 @@
         <v>-5329176.621872679</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26272,7 +27336,7 @@
         <v>-5329176.621872679</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26305,7 +27369,7 @@
         <v>-5329176.621872679</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26338,7 +27402,7 @@
         <v>-5361580.554472679</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26371,7 +27435,7 @@
         <v>-5361580.554472679</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26404,7 +27468,7 @@
         <v>-5361580.554472679</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26437,7 +27501,7 @@
         <v>-5323008.139972679</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26470,7 +27534,7 @@
         <v>-5327998.139972679</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26503,7 +27567,7 @@
         <v>-5217623.595272679</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26536,7 +27600,7 @@
         <v>-5283606.073572678</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26569,7 +27633,7 @@
         <v>-5283606.073572678</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26602,7 +27666,7 @@
         <v>-5283606.073572678</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26635,7 +27699,7 @@
         <v>-5326060.233572679</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26668,7 +27732,7 @@
         <v>-5326060.233572679</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26701,7 +27765,7 @@
         <v>-5267507.916972679</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26734,7 +27798,7 @@
         <v>-5278092.367272679</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26767,7 +27831,7 @@
         <v>-5137054.251872679</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26800,7 +27864,7 @@
         <v>-4762210.184072679</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26833,7 +27897,7 @@
         <v>-5024328.870672679</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26866,7 +27930,7 @@
         <v>-4952318.173072679</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26899,7 +27963,7 @@
         <v>-4952318.173072679</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26932,7 +27996,7 @@
         <v>-4798032.926072679</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26965,7 +28029,7 @@
         <v>-4798032.926072679</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26998,7 +28062,7 @@
         <v>-4682667.735572679</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27031,7 +28095,7 @@
         <v>-4682667.735572679</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27064,7 +28128,7 @@
         <v>-4956566.923372679</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27097,7 +28161,7 @@
         <v>-4930035.185072679</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27130,7 +28194,7 @@
         <v>-4930035.185072679</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27163,7 +28227,7 @@
         <v>-5436839.288472679</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27196,7 +28260,7 @@
         <v>-5436839.288472679</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27229,7 +28293,7 @@
         <v>-5687003.78447268</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27262,7 +28326,7 @@
         <v>-5682043.44547268</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27295,7 +28359,7 @@
         <v>-5682043.44547268</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27328,7 +28392,7 @@
         <v>-5794659.36317268</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27361,7 +28425,7 @@
         <v>-5561006.50067268</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27394,7 +28458,7 @@
         <v>-5568600.701672681</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27427,7 +28491,7 @@
         <v>-5568600.701672681</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27460,7 +28524,7 @@
         <v>-5527707.433572681</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27493,7 +28557,7 @@
         <v>-5780585.19477268</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27526,7 +28590,7 @@
         <v>-5780585.19477268</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27559,7 +28623,7 @@
         <v>-5659084.60217268</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27592,7 +28656,7 @@
         <v>-5659084.60217268</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27625,7 +28689,7 @@
         <v>-5659084.60217268</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27658,7 +28722,7 @@
         <v>-5625308.59627268</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27691,7 +28755,7 @@
         <v>-5736745.54757268</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27724,7 +28788,7 @@
         <v>-5736745.54757268</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27757,7 +28821,7 @@
         <v>-5736745.54757268</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27790,7 +28854,7 @@
         <v>-5736745.54757268</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27823,7 +28887,7 @@
         <v>-5736745.54757268</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27856,7 +28920,7 @@
         <v>-5775277.049972679</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27889,7 +28953,7 @@
         <v>-5775277.049972679</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27922,7 +28986,7 @@
         <v>-5775277.049972679</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27955,7 +29019,7 @@
         <v>-5724066.141672679</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27988,7 +29052,7 @@
         <v>-5692950.178272679</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27999,6 +29063,6 @@
       <c r="M787" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest DVP.xlsx
+++ b/BackTest/2019-11-01 BackTest DVP.xlsx
@@ -649,7 +649,7 @@
         <v>-448361.6497736843</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-448361.6497736843</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-429087.6497736843</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-429087.6497736843</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-190794.9187736843</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-304525.4852977348</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-326375.7565977349</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-326375.7565977349</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-467021.0942977349</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-594920.5682977349</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-744078.307997735</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-713629.0746701728</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-713629.0746701728</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-743355.5935701728</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-775853.8100701728</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-775853.8100701728</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-802043.6916701728</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-848532.6454701729</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-848522.5203701729</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-848522.5203701729</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-941147.520270173</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-940627.395170173</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-941125.941770173</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-941125.941770173</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-941075.941770173</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-941065.941770173</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-941330.5152701731</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-762365.136051934</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-738552.8257928145</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-739130.2872928145</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-738350.3386928145</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-797750.3386928145</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-797739.3386928145</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-987800.1965928145</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-987800.1965928145</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1005439.574092814</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1005439.574092814</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1172221.073492815</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-796312.7915928145</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-800685.1345928145</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-753286.9314928144</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-753286.9314928144</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-814466.3360928145</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-350460.0469313238</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-350460.0469313238</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-353992.7031313238</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-397368.7040313238</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-320386.2557313238</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-320375.2557313238</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-343940.1199313238</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-437802.2245313238</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-431058.7870313238</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-701325.3532313239</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-701325.3532313239</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -10384,10 +10384,14 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J303" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
@@ -10417,11 +10421,19 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J304" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10462,19 @@
         <v>-7061556.545533339</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J305" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10503,19 @@
         <v>-7300694.454033338</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J306" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +10544,19 @@
         <v>-7300684.454033338</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J307" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10585,19 @@
         <v>-7300684.454033338</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J308" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10626,19 @@
         <v>-7175782.547906311</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J309" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +10667,19 @@
         <v>-7176099.185506311</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J310" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10708,19 @@
         <v>-7135359.033606311</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J311" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10749,19 @@
         <v>-7135359.033606311</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J312" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +10793,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +10832,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +10871,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +10910,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +10949,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +10988,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +11027,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11063,19 @@
         <v>-7665327.152806311</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J320" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11104,19 @@
         <v>-7634825.603906311</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J321" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11145,19 @@
         <v>-7634825.603906311</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J322" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11186,19 @@
         <v>-7447052.597906311</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J323" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11227,19 @@
         <v>-7447052.597906311</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>15</v>
+      </c>
+      <c r="J324" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11268,19 @@
         <v>-7447052.597906311</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>15</v>
+      </c>
+      <c r="J325" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +11312,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11351,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +11390,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +11429,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +11468,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +11507,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +11546,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11585,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +11624,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +11663,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +11702,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +11741,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +11780,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +11819,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +11858,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +11897,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +11936,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +11975,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +12014,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +12053,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +12092,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +12131,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +12170,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +12209,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11938,8 +12248,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +12287,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +12326,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +12365,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +12404,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +12443,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +12482,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +12521,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12202,8 +12560,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +12599,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +12638,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +12677,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +12716,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +12755,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +12794,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12433,8 +12833,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12869,17 @@
         <v>-7091596.040173195</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12908,17 @@
         <v>-7091596.040173195</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12947,17 @@
         <v>-7091596.040173195</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +12989,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12598,8 +13028,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +13067,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12664,8 +13106,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +13145,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +13184,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +13223,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +13262,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +13301,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +13340,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +13379,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +13418,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +13457,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12994,8 +13496,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13027,8 +13535,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13060,8 +13574,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,15 +13610,17 @@
         <v>-7561169.589373195</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K385" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,17 +13649,15 @@
         <v>-7561069.589373195</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L386" t="n">
@@ -13168,17 +13688,15 @@
         <v>-7746041.313573195</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L387" t="n">
@@ -13209,15 +13727,17 @@
         <v>-7743361.622873195</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K388" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13246,17 +13766,15 @@
         <v>-7743361.622873195</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L389" t="n">
@@ -13287,17 +13805,15 @@
         <v>-7729583.191573194</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L390" t="n">
@@ -13328,15 +13844,17 @@
         <v>-7731583.191573194</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K391" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13365,17 +13883,15 @@
         <v>-7731573.191573194</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L392" t="n">
@@ -13406,17 +13922,15 @@
         <v>-7731573.191573194</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L393" t="n">
@@ -13447,13 +13961,11 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13488,13 +14000,11 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13529,13 +14039,11 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13570,13 +14078,11 @@
         <v>-8268495.689073194</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13611,13 +14117,11 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13652,13 +14156,11 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13693,13 +14195,11 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13734,13 +14234,11 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13775,13 +14273,11 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -13816,13 +14312,11 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -13857,13 +14351,11 @@
         <v>-8175526.478573194</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -13898,13 +14390,11 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -13939,13 +14429,11 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -13980,13 +14468,11 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14021,13 +14507,11 @@
         <v>-8166046.929373194</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14062,13 +14546,11 @@
         <v>-8221209.593273194</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14103,13 +14585,11 @@
         <v>-8221209.593273194</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14144,13 +14624,11 @@
         <v>-8221209.593273194</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14185,13 +14663,11 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14226,13 +14702,11 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14267,13 +14741,11 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14308,13 +14780,11 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14349,13 +14819,11 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14390,13 +14858,11 @@
         <v>-8204804.364673194</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14431,13 +14897,11 @@
         <v>-7847661.507573194</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14476,7 +14940,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14515,7 +14979,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14554,7 +15018,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14593,7 +15057,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14632,7 +15096,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14671,7 +15135,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14710,7 +15174,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14745,19 +15209,19 @@
         <v>-6886315.761606311</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L426" t="n">
-        <v>1.03421568627451</v>
+        <v>1</v>
       </c>
       <c r="M426" t="inlineStr"/>
     </row>
@@ -14784,11 +15248,17 @@
         <v>-7874791.831506312</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14817,11 +15287,17 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14850,11 +15326,17 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14883,11 +15365,17 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14916,11 +15404,17 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14949,11 +15443,17 @@
         <v>-7492093.935706312</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14982,11 +15482,17 @@
         <v>-7517351.974806312</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15015,11 +15521,17 @@
         <v>-7217351.974806312</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15048,11 +15560,17 @@
         <v>-7496654.491006312</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15081,11 +15599,17 @@
         <v>-7489789.427806312</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15114,11 +15638,17 @@
         <v>-7493624.247706312</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15147,11 +15677,17 @@
         <v>-7939995.906706312</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15180,11 +15716,17 @@
         <v>-7939995.906706312</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15216,8 +15758,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15249,8 +15797,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15282,8 +15836,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15315,8 +15875,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15348,8 +15914,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15381,8 +15953,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15411,11 +15989,17 @@
         <v>-8086569.523106311</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15444,11 +16028,17 @@
         <v>-8110101.015906312</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15477,11 +16067,17 @@
         <v>-7478623.522606311</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15510,11 +16106,17 @@
         <v>-7478623.522606311</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15543,11 +16145,17 @@
         <v>-7478623.522606311</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15576,11 +16184,17 @@
         <v>-7503771.779706311</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15609,11 +16223,17 @@
         <v>-7316596.932806311</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15642,11 +16262,17 @@
         <v>-7316848.988606311</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15675,11 +16301,17 @@
         <v>-7288607.459943891</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15708,11 +16340,17 @@
         <v>-7564726.459943891</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15741,11 +16379,17 @@
         <v>-7564726.459943891</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15774,11 +16418,17 @@
         <v>-7564726.459943891</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15807,11 +16457,17 @@
         <v>-7450364.794243891</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15840,11 +16496,17 @@
         <v>-7470364.794243891</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15873,11 +16535,17 @@
         <v>-7470364.794243891</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15906,11 +16574,17 @@
         <v>-7654691.003643891</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15939,11 +16613,17 @@
         <v>-7654681.003643891</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15972,11 +16652,17 @@
         <v>-7863179.996343891</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16008,8 +16694,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16041,8 +16733,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16074,8 +16772,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16107,8 +16811,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16140,8 +16850,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16173,8 +16889,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16206,8 +16928,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16239,8 +16967,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16272,8 +17006,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16305,8 +17045,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16338,8 +17084,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16371,8 +17123,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16404,8 +17162,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16437,8 +17201,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16470,8 +17240,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16503,8 +17279,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16536,8 +17318,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16566,15 +17354,17 @@
         <v>-8088324.254843891</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K481" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16607,11 +17397,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L482" t="n">
@@ -16646,7 +17436,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16685,7 +17475,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16724,7 +17514,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16763,7 +17553,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16802,7 +17592,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16841,7 +17631,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16880,7 +17670,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16919,7 +17709,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -16958,7 +17748,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -16997,7 +17787,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17036,7 +17826,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17075,7 +17865,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17110,19 +17900,19 @@
         <v>-7067468.026038277</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L495" t="n">
-        <v>1.007820512820513</v>
+        <v>1</v>
       </c>
       <c r="M495" t="inlineStr"/>
     </row>
@@ -17152,8 +17942,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17185,8 +17981,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17218,8 +18020,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17251,8 +18059,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17284,8 +18098,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17317,8 +18137,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17350,8 +18176,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17383,8 +18215,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17416,8 +18254,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17449,8 +18293,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17482,8 +18332,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17515,8 +18371,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17548,8 +18410,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17581,8 +18449,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17614,8 +18488,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +18524,17 @@
         <v>-6918015.752638277</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +18563,17 @@
         <v>-6973560.216938277</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +18602,17 @@
         <v>-6973460.216938277</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +18641,17 @@
         <v>-7024358.613538276</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +18680,17 @@
         <v>-7024358.613538276</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +18719,17 @@
         <v>-7114347.391238277</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +18758,17 @@
         <v>-7114347.391238277</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +18797,17 @@
         <v>-7093672.391238277</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +18836,17 @@
         <v>-6950864.798438277</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18875,17 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18914,17 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +18953,17 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +18992,17 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +19031,17 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18109,8 +19073,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18142,8 +19112,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18175,8 +19151,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +19187,17 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18241,8 +19229,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +19265,17 @@
         <v>-6951864.798438277</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18307,8 +19307,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +19343,17 @@
         <v>-6951886.798438277</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18373,8 +19385,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18406,8 +19424,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18439,8 +19463,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +19499,17 @@
         <v>-6497591.663938277</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +19538,17 @@
         <v>-6497591.663938277</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +19577,17 @@
         <v>-6590520.112938277</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18571,8 +19619,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +19655,17 @@
         <v>-6590510.112938277</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18634,11 +19694,17 @@
         <v>-6590510.112938277</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18667,11 +19733,17 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18700,11 +19772,17 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +19811,17 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18766,11 +19850,17 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18799,11 +19889,17 @@
         <v>-6581799.112938277</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +19928,17 @@
         <v>-6521321.878438277</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +19967,17 @@
         <v>-6682238.830838277</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +20006,17 @@
         <v>-6757879.607538277</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +20045,17 @@
         <v>-6695767.806338278</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18964,11 +20084,17 @@
         <v>-6671845.934338277</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18997,11 +20123,17 @@
         <v>-6671845.934338277</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19030,11 +20162,17 @@
         <v>-6803675.022138277</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +20201,17 @@
         <v>-6803675.022138277</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19096,11 +20240,17 @@
         <v>-6845517.292238277</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +20279,17 @@
         <v>-6818762.540738277</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +20318,17 @@
         <v>-6818762.540738277</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +20357,17 @@
         <v>-6818762.540738277</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19228,11 +20396,17 @@
         <v>-6876749.614338277</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +20435,17 @@
         <v>-6876749.614338277</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +20474,17 @@
         <v>-6876749.614338277</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +20513,17 @@
         <v>-6831999.870638276</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +20552,17 @@
         <v>-6934189.068138276</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19393,11 +20591,17 @@
         <v>-7047132.315138277</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +20630,17 @@
         <v>-7013426.315138277</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19459,11 +20669,17 @@
         <v>-7026012.417838276</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19492,11 +20708,17 @@
         <v>-7024703.417838276</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19525,11 +20747,17 @@
         <v>-7024703.417838276</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19558,11 +20786,17 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +20825,17 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19624,11 +20864,17 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19657,11 +20903,17 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +20942,17 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +20981,17 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +21020,17 @@
         <v>-7024293.417838276</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +21059,17 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +21098,17 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19855,11 +21137,17 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +21176,17 @@
         <v>-7007323.562838276</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +21215,17 @@
         <v>-5898064.552738275</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +21254,17 @@
         <v>-5898064.552738275</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +21293,17 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20020,11 +21332,17 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +21371,17 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +21410,17 @@
         <v>-6137184.700323461</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20119,11 +21449,17 @@
         <v>-6170517.164123461</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +21488,17 @@
         <v>-6450746.07662346</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20185,11 +21527,17 @@
         <v>-6450746.07662346</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +21566,17 @@
         <v>-6664593.21052346</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +21605,17 @@
         <v>-7160219.42082346</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +21644,17 @@
         <v>-7303321.775823461</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20320,8 +21686,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20353,8 +21725,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20386,8 +21764,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20419,8 +21803,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20449,15 +21839,15 @@
         <v>-7934333.482271868</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J596" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L596" t="n">
@@ -20488,12 +21878,12 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J597" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20527,12 +21917,12 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J598" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20566,12 +21956,12 @@
         <v>-7654709.712923461</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J599" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20605,12 +21995,12 @@
         <v>-7654698.712923461</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J600" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20647,7 +22037,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20684,7 +22076,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20721,7 +22115,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20758,7 +22154,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20792,10 +22190,12 @@
         <v>-7671253.884960568</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20832,7 +22232,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20866,16 +22268,20 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L607" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
       <c r="M607" t="inlineStr"/>
     </row>
     <row r="608">
@@ -20901,11 +22307,17 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20934,11 +22346,17 @@
         <v>-7299065.896660567</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20967,11 +22385,17 @@
         <v>-6739894.290560568</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21000,11 +22424,17 @@
         <v>-7301746.984060568</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21033,11 +22463,17 @@
         <v>-7301746.984060568</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21066,11 +22502,17 @@
         <v>-7301736.984060568</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21099,11 +22541,17 @@
         <v>-7301736.984060568</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21132,11 +22580,17 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21165,11 +22619,17 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21201,8 +22661,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21234,8 +22700,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21264,11 +22736,17 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21297,11 +22775,17 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21330,11 +22814,17 @@
         <v>-7362282.644360567</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21366,8 +22856,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21399,8 +22895,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21432,8 +22934,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21465,8 +22973,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21498,8 +23012,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21531,8 +23051,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21564,8 +23090,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21597,8 +23129,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21630,8 +23168,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21663,8 +23207,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21696,8 +23246,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21729,8 +23285,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21762,8 +23324,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21795,8 +23363,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21825,11 +23399,17 @@
         <v>-7189260.630160568</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21858,11 +23438,17 @@
         <v>-7189275.659460568</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21891,11 +23477,17 @@
         <v>-7187807.569460568</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21924,11 +23516,17 @@
         <v>-7291177.825060568</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21957,11 +23555,17 @@
         <v>-7291177.825060568</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21990,11 +23594,17 @@
         <v>-7229052.023860568</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22023,11 +23633,17 @@
         <v>-7233729.228760568</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22056,11 +23672,17 @@
         <v>-7119032.459060568</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22089,11 +23711,17 @@
         <v>-7157443.686860569</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22122,11 +23750,17 @@
         <v>-7132030.146560568</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22155,11 +23789,17 @@
         <v>-7132030.146560568</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22188,11 +23828,17 @@
         <v>-7132030.146560568</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22221,11 +23867,17 @@
         <v>-7176286.701460568</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22254,11 +23906,17 @@
         <v>-7176286.701460568</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22287,11 +23945,17 @@
         <v>-7176286.701460568</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22320,11 +23984,17 @@
         <v>-7176276.701460568</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22353,11 +24023,17 @@
         <v>-7502225.210760568</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22386,11 +24062,17 @@
         <v>-7615116.967760568</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22419,11 +24101,17 @@
         <v>-7615116.967760568</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22452,11 +24140,17 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22485,11 +24179,17 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22518,11 +24218,17 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22551,11 +24257,17 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22584,11 +24296,17 @@
         <v>-7588149.698460569</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22617,11 +24335,17 @@
         <v>-7601678.533460569</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22653,8 +24377,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22686,8 +24416,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22719,8 +24455,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22752,8 +24494,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22785,8 +24533,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22815,11 +24569,17 @@
         <v>-7481462.082760569</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22851,8 +24611,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22884,8 +24650,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22917,8 +24689,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22950,8 +24728,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22983,8 +24767,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23013,11 +24803,17 @@
         <v>-7530943.680540073</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23046,11 +24842,17 @@
         <v>-7530943.680540073</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23079,11 +24881,17 @@
         <v>-7530943.680540073</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23112,11 +24920,17 @@
         <v>-7304015.07226057</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23145,11 +24959,17 @@
         <v>-6986238.06306057</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23178,11 +24998,17 @@
         <v>-6986238.06306057</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23211,11 +25037,17 @@
         <v>-6986626.30746057</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23244,11 +25076,17 @@
         <v>-6966638.51186057</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23277,11 +25115,17 @@
         <v>-6397938.92246057</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23310,11 +25154,17 @@
         <v>-5707814.80366057</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23343,11 +25193,17 @@
         <v>-5707814.80366057</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23376,11 +25232,17 @@
         <v>-6214734.12356057</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23409,11 +25271,17 @@
         <v>-5557282.84246057</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23442,11 +25310,17 @@
         <v>-5557282.84246057</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23478,8 +25352,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23511,8 +25391,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23544,8 +25430,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23577,8 +25469,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23610,8 +25508,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23643,8 +25547,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23676,8 +25586,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23709,8 +25625,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23742,8 +25664,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23775,8 +25703,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23808,8 +25742,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23841,8 +25781,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23874,8 +25820,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23907,8 +25859,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23940,8 +25898,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23973,8 +25937,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24006,8 +25976,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24036,15 +26012,23 @@
         <v>-4239507.944882843</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L703" t="n">
-        <v>1</v>
-      </c>
-      <c r="M703" t="inlineStr"/>
+        <v>1.163918918918919</v>
+      </c>
+      <c r="M703" t="n">
+        <v>1.102739726027397</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -24069,7 +26053,7 @@
         <v>-4661147.917082842</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24102,7 +26086,7 @@
         <v>-4661147.917082842</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24135,7 +26119,7 @@
         <v>-4661147.917082842</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24168,7 +26152,7 @@
         <v>-4473844.916330819</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24201,7 +26185,7 @@
         <v>-4736280.972630819</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24234,7 +26218,7 @@
         <v>-5174189.04027268</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24267,7 +26251,7 @@
         <v>-5012531.83767268</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24300,7 +26284,7 @@
         <v>-5092757.26287268</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24333,7 +26317,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24366,7 +26350,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24399,7 +26383,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24432,7 +26416,7 @@
         <v>-4975398.75637268</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24465,7 +26449,7 @@
         <v>-5186855.44617268</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24498,7 +26482,7 @@
         <v>-5573336.93787268</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24531,7 +26515,7 @@
         <v>-5483813.90837268</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24861,7 +26845,7 @@
         <v>-5130590.901072679</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24894,7 +26878,7 @@
         <v>-5130590.901072679</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24927,7 +26911,7 @@
         <v>-5138174.175872679</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24960,7 +26944,7 @@
         <v>-5269400.178972679</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24993,7 +26977,7 @@
         <v>-5240091.178972679</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25026,7 +27010,7 @@
         <v>-5329176.621872679</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25752,7 +27736,7 @@
         <v>-4798032.926072679</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25785,7 +27769,7 @@
         <v>-4798032.926072679</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25818,7 +27802,7 @@
         <v>-4682667.735572679</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25851,7 +27835,7 @@
         <v>-4682667.735572679</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25884,7 +27868,7 @@
         <v>-4956566.923372679</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25917,7 +27901,7 @@
         <v>-4930035.185072679</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25950,7 +27934,7 @@
         <v>-4930035.185072679</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25983,7 +27967,7 @@
         <v>-5436839.288472679</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26016,7 +28000,7 @@
         <v>-5436839.288472679</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
